--- a/solutions/dell/devops/poweredge-ci-infrastructure/presales/discovery-questionnaire.xlsx
+++ b/solutions/dell/devops/poweredge-ci-infrastructure/presales/discovery-questionnaire.xlsx
@@ -846,7 +846,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G79"/>
+  <dimension ref="A1:G81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -888,10 +888,10 @@
     </row>
     <row r="2" ht="26" customHeight="1">
       <c r="A2" s="36" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B2" s="36">
-        <f>SUMPRODUCT(--(LEN(F5:F79)&gt;0))</f>
+        <f>SUMPRODUCT(--(LEN(F5:F81)&gt;0))</f>
         <v/>
       </c>
       <c r="C2" s="36">
@@ -2652,540 +2652,600 @@
     </row>
     <row r="62">
       <c r="A62" s="41">
-        <f>IF('Implementation Planning'!A2="","",'Implementation Planning'!A2)</f>
+        <f>IF('Operations &amp; Support'!A12="","",'Operations &amp; Support'!A12)</f>
         <v/>
       </c>
       <c r="B62" s="41">
-        <f>IF('Implementation Planning'!B2="","",'Implementation Planning'!B2)</f>
+        <f>IF('Operations &amp; Support'!B12="","",'Operations &amp; Support'!B12)</f>
         <v/>
       </c>
       <c r="C62" s="41">
-        <f>IF('Implementation Planning'!C2="","",'Implementation Planning'!C2)</f>
+        <f>IF('Operations &amp; Support'!C12="","",'Operations &amp; Support'!C12)</f>
         <v/>
       </c>
       <c r="D62" s="41">
-        <f>IF('Implementation Planning'!D2="","",'Implementation Planning'!D2)</f>
+        <f>IF('Operations &amp; Support'!D12="","",'Operations &amp; Support'!D12)</f>
         <v/>
       </c>
       <c r="E62" s="41">
-        <f>IF('Implementation Planning'!E2="","",'Implementation Planning'!E2)</f>
+        <f>IF('Operations &amp; Support'!E12="","",'Operations &amp; Support'!E12)</f>
         <v/>
       </c>
       <c r="F62" s="40">
-        <f>IF('Implementation Planning'!F2="","",'Implementation Planning'!F2)</f>
+        <f>IF('Operations &amp; Support'!F12="","",'Operations &amp; Support'!F12)</f>
         <v/>
       </c>
       <c r="G62" s="41">
-        <f>IF('Implementation Planning'!G2="","",'Implementation Planning'!G2)</f>
+        <f>IF('Operations &amp; Support'!G12="","",'Operations &amp; Support'!G12)</f>
         <v/>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="39">
-        <f>IF('Implementation Planning'!A3="","",'Implementation Planning'!A3)</f>
+        <f>IF('Operations &amp; Support'!A13="","",'Operations &amp; Support'!A13)</f>
         <v/>
       </c>
       <c r="B63" s="39">
-        <f>IF('Implementation Planning'!B3="","",'Implementation Planning'!B3)</f>
+        <f>IF('Operations &amp; Support'!B13="","",'Operations &amp; Support'!B13)</f>
         <v/>
       </c>
       <c r="C63" s="39">
-        <f>IF('Implementation Planning'!C3="","",'Implementation Planning'!C3)</f>
+        <f>IF('Operations &amp; Support'!C13="","",'Operations &amp; Support'!C13)</f>
         <v/>
       </c>
       <c r="D63" s="39">
-        <f>IF('Implementation Planning'!D3="","",'Implementation Planning'!D3)</f>
+        <f>IF('Operations &amp; Support'!D13="","",'Operations &amp; Support'!D13)</f>
         <v/>
       </c>
       <c r="E63" s="39">
-        <f>IF('Implementation Planning'!E3="","",'Implementation Planning'!E3)</f>
+        <f>IF('Operations &amp; Support'!E13="","",'Operations &amp; Support'!E13)</f>
         <v/>
       </c>
       <c r="F63" s="40">
-        <f>IF('Implementation Planning'!F3="","",'Implementation Planning'!F3)</f>
+        <f>IF('Operations &amp; Support'!F13="","",'Operations &amp; Support'!F13)</f>
         <v/>
       </c>
       <c r="G63" s="39">
-        <f>IF('Implementation Planning'!G3="","",'Implementation Planning'!G3)</f>
+        <f>IF('Operations &amp; Support'!G13="","",'Operations &amp; Support'!G13)</f>
         <v/>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="41">
-        <f>IF('Implementation Planning'!A4="","",'Implementation Planning'!A4)</f>
+        <f>IF('Implementation Planning'!A2="","",'Implementation Planning'!A2)</f>
         <v/>
       </c>
       <c r="B64" s="41">
-        <f>IF('Implementation Planning'!B4="","",'Implementation Planning'!B4)</f>
+        <f>IF('Implementation Planning'!B2="","",'Implementation Planning'!B2)</f>
         <v/>
       </c>
       <c r="C64" s="41">
-        <f>IF('Implementation Planning'!C4="","",'Implementation Planning'!C4)</f>
+        <f>IF('Implementation Planning'!C2="","",'Implementation Planning'!C2)</f>
         <v/>
       </c>
       <c r="D64" s="41">
-        <f>IF('Implementation Planning'!D4="","",'Implementation Planning'!D4)</f>
+        <f>IF('Implementation Planning'!D2="","",'Implementation Planning'!D2)</f>
         <v/>
       </c>
       <c r="E64" s="41">
-        <f>IF('Implementation Planning'!E4="","",'Implementation Planning'!E4)</f>
+        <f>IF('Implementation Planning'!E2="","",'Implementation Planning'!E2)</f>
         <v/>
       </c>
       <c r="F64" s="40">
-        <f>IF('Implementation Planning'!F4="","",'Implementation Planning'!F4)</f>
+        <f>IF('Implementation Planning'!F2="","",'Implementation Planning'!F2)</f>
         <v/>
       </c>
       <c r="G64" s="41">
-        <f>IF('Implementation Planning'!G4="","",'Implementation Planning'!G4)</f>
+        <f>IF('Implementation Planning'!G2="","",'Implementation Planning'!G2)</f>
         <v/>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="39">
-        <f>IF('Implementation Planning'!A5="","",'Implementation Planning'!A5)</f>
+        <f>IF('Implementation Planning'!A3="","",'Implementation Planning'!A3)</f>
         <v/>
       </c>
       <c r="B65" s="39">
-        <f>IF('Implementation Planning'!B5="","",'Implementation Planning'!B5)</f>
+        <f>IF('Implementation Planning'!B3="","",'Implementation Planning'!B3)</f>
         <v/>
       </c>
       <c r="C65" s="39">
-        <f>IF('Implementation Planning'!C5="","",'Implementation Planning'!C5)</f>
+        <f>IF('Implementation Planning'!C3="","",'Implementation Planning'!C3)</f>
         <v/>
       </c>
       <c r="D65" s="39">
-        <f>IF('Implementation Planning'!D5="","",'Implementation Planning'!D5)</f>
+        <f>IF('Implementation Planning'!D3="","",'Implementation Planning'!D3)</f>
         <v/>
       </c>
       <c r="E65" s="39">
-        <f>IF('Implementation Planning'!E5="","",'Implementation Planning'!E5)</f>
+        <f>IF('Implementation Planning'!E3="","",'Implementation Planning'!E3)</f>
         <v/>
       </c>
       <c r="F65" s="40">
-        <f>IF('Implementation Planning'!F5="","",'Implementation Planning'!F5)</f>
+        <f>IF('Implementation Planning'!F3="","",'Implementation Planning'!F3)</f>
         <v/>
       </c>
       <c r="G65" s="39">
-        <f>IF('Implementation Planning'!G5="","",'Implementation Planning'!G5)</f>
+        <f>IF('Implementation Planning'!G3="","",'Implementation Planning'!G3)</f>
         <v/>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="41">
-        <f>IF('Implementation Planning'!A6="","",'Implementation Planning'!A6)</f>
+        <f>IF('Implementation Planning'!A4="","",'Implementation Planning'!A4)</f>
         <v/>
       </c>
       <c r="B66" s="41">
-        <f>IF('Implementation Planning'!B6="","",'Implementation Planning'!B6)</f>
+        <f>IF('Implementation Planning'!B4="","",'Implementation Planning'!B4)</f>
         <v/>
       </c>
       <c r="C66" s="41">
-        <f>IF('Implementation Planning'!C6="","",'Implementation Planning'!C6)</f>
+        <f>IF('Implementation Planning'!C4="","",'Implementation Planning'!C4)</f>
         <v/>
       </c>
       <c r="D66" s="41">
-        <f>IF('Implementation Planning'!D6="","",'Implementation Planning'!D6)</f>
+        <f>IF('Implementation Planning'!D4="","",'Implementation Planning'!D4)</f>
         <v/>
       </c>
       <c r="E66" s="41">
-        <f>IF('Implementation Planning'!E6="","",'Implementation Planning'!E6)</f>
+        <f>IF('Implementation Planning'!E4="","",'Implementation Planning'!E4)</f>
         <v/>
       </c>
       <c r="F66" s="40">
-        <f>IF('Implementation Planning'!F6="","",'Implementation Planning'!F6)</f>
+        <f>IF('Implementation Planning'!F4="","",'Implementation Planning'!F4)</f>
         <v/>
       </c>
       <c r="G66" s="41">
-        <f>IF('Implementation Planning'!G6="","",'Implementation Planning'!G6)</f>
+        <f>IF('Implementation Planning'!G4="","",'Implementation Planning'!G4)</f>
         <v/>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="39">
-        <f>IF('Implementation Planning'!A7="","",'Implementation Planning'!A7)</f>
+        <f>IF('Implementation Planning'!A5="","",'Implementation Planning'!A5)</f>
         <v/>
       </c>
       <c r="B67" s="39">
-        <f>IF('Implementation Planning'!B7="","",'Implementation Planning'!B7)</f>
+        <f>IF('Implementation Planning'!B5="","",'Implementation Planning'!B5)</f>
         <v/>
       </c>
       <c r="C67" s="39">
-        <f>IF('Implementation Planning'!C7="","",'Implementation Planning'!C7)</f>
+        <f>IF('Implementation Planning'!C5="","",'Implementation Planning'!C5)</f>
         <v/>
       </c>
       <c r="D67" s="39">
-        <f>IF('Implementation Planning'!D7="","",'Implementation Planning'!D7)</f>
+        <f>IF('Implementation Planning'!D5="","",'Implementation Planning'!D5)</f>
         <v/>
       </c>
       <c r="E67" s="39">
-        <f>IF('Implementation Planning'!E7="","",'Implementation Planning'!E7)</f>
+        <f>IF('Implementation Planning'!E5="","",'Implementation Planning'!E5)</f>
         <v/>
       </c>
       <c r="F67" s="40">
-        <f>IF('Implementation Planning'!F7="","",'Implementation Planning'!F7)</f>
+        <f>IF('Implementation Planning'!F5="","",'Implementation Planning'!F5)</f>
         <v/>
       </c>
       <c r="G67" s="39">
-        <f>IF('Implementation Planning'!G7="","",'Implementation Planning'!G7)</f>
+        <f>IF('Implementation Planning'!G5="","",'Implementation Planning'!G5)</f>
         <v/>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="41">
-        <f>IF('Implementation Planning'!A8="","",'Implementation Planning'!A8)</f>
+        <f>IF('Implementation Planning'!A6="","",'Implementation Planning'!A6)</f>
         <v/>
       </c>
       <c r="B68" s="41">
-        <f>IF('Implementation Planning'!B8="","",'Implementation Planning'!B8)</f>
+        <f>IF('Implementation Planning'!B6="","",'Implementation Planning'!B6)</f>
         <v/>
       </c>
       <c r="C68" s="41">
-        <f>IF('Implementation Planning'!C8="","",'Implementation Planning'!C8)</f>
+        <f>IF('Implementation Planning'!C6="","",'Implementation Planning'!C6)</f>
         <v/>
       </c>
       <c r="D68" s="41">
-        <f>IF('Implementation Planning'!D8="","",'Implementation Planning'!D8)</f>
+        <f>IF('Implementation Planning'!D6="","",'Implementation Planning'!D6)</f>
         <v/>
       </c>
       <c r="E68" s="41">
-        <f>IF('Implementation Planning'!E8="","",'Implementation Planning'!E8)</f>
+        <f>IF('Implementation Planning'!E6="","",'Implementation Planning'!E6)</f>
         <v/>
       </c>
       <c r="F68" s="40">
-        <f>IF('Implementation Planning'!F8="","",'Implementation Planning'!F8)</f>
+        <f>IF('Implementation Planning'!F6="","",'Implementation Planning'!F6)</f>
         <v/>
       </c>
       <c r="G68" s="41">
-        <f>IF('Implementation Planning'!G8="","",'Implementation Planning'!G8)</f>
+        <f>IF('Implementation Planning'!G6="","",'Implementation Planning'!G6)</f>
         <v/>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="39">
-        <f>IF('Implementation Planning'!A9="","",'Implementation Planning'!A9)</f>
+        <f>IF('Implementation Planning'!A7="","",'Implementation Planning'!A7)</f>
         <v/>
       </c>
       <c r="B69" s="39">
-        <f>IF('Implementation Planning'!B9="","",'Implementation Planning'!B9)</f>
+        <f>IF('Implementation Planning'!B7="","",'Implementation Planning'!B7)</f>
         <v/>
       </c>
       <c r="C69" s="39">
-        <f>IF('Implementation Planning'!C9="","",'Implementation Planning'!C9)</f>
+        <f>IF('Implementation Planning'!C7="","",'Implementation Planning'!C7)</f>
         <v/>
       </c>
       <c r="D69" s="39">
-        <f>IF('Implementation Planning'!D9="","",'Implementation Planning'!D9)</f>
+        <f>IF('Implementation Planning'!D7="","",'Implementation Planning'!D7)</f>
         <v/>
       </c>
       <c r="E69" s="39">
-        <f>IF('Implementation Planning'!E9="","",'Implementation Planning'!E9)</f>
+        <f>IF('Implementation Planning'!E7="","",'Implementation Planning'!E7)</f>
         <v/>
       </c>
       <c r="F69" s="40">
-        <f>IF('Implementation Planning'!F9="","",'Implementation Planning'!F9)</f>
+        <f>IF('Implementation Planning'!F7="","",'Implementation Planning'!F7)</f>
         <v/>
       </c>
       <c r="G69" s="39">
-        <f>IF('Implementation Planning'!G9="","",'Implementation Planning'!G9)</f>
+        <f>IF('Implementation Planning'!G7="","",'Implementation Planning'!G7)</f>
         <v/>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="41">
-        <f>IF('Implementation Planning'!A10="","",'Implementation Planning'!A10)</f>
+        <f>IF('Implementation Planning'!A8="","",'Implementation Planning'!A8)</f>
         <v/>
       </c>
       <c r="B70" s="41">
-        <f>IF('Implementation Planning'!B10="","",'Implementation Planning'!B10)</f>
+        <f>IF('Implementation Planning'!B8="","",'Implementation Planning'!B8)</f>
         <v/>
       </c>
       <c r="C70" s="41">
-        <f>IF('Implementation Planning'!C10="","",'Implementation Planning'!C10)</f>
+        <f>IF('Implementation Planning'!C8="","",'Implementation Planning'!C8)</f>
         <v/>
       </c>
       <c r="D70" s="41">
-        <f>IF('Implementation Planning'!D10="","",'Implementation Planning'!D10)</f>
+        <f>IF('Implementation Planning'!D8="","",'Implementation Planning'!D8)</f>
         <v/>
       </c>
       <c r="E70" s="41">
-        <f>IF('Implementation Planning'!E10="","",'Implementation Planning'!E10)</f>
+        <f>IF('Implementation Planning'!E8="","",'Implementation Planning'!E8)</f>
         <v/>
       </c>
       <c r="F70" s="40">
-        <f>IF('Implementation Planning'!F10="","",'Implementation Planning'!F10)</f>
+        <f>IF('Implementation Planning'!F8="","",'Implementation Planning'!F8)</f>
         <v/>
       </c>
       <c r="G70" s="41">
-        <f>IF('Implementation Planning'!G10="","",'Implementation Planning'!G10)</f>
+        <f>IF('Implementation Planning'!G8="","",'Implementation Planning'!G8)</f>
         <v/>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="39">
-        <f>IF('Implementation Planning'!A11="","",'Implementation Planning'!A11)</f>
+        <f>IF('Implementation Planning'!A9="","",'Implementation Planning'!A9)</f>
         <v/>
       </c>
       <c r="B71" s="39">
-        <f>IF('Implementation Planning'!B11="","",'Implementation Planning'!B11)</f>
+        <f>IF('Implementation Planning'!B9="","",'Implementation Planning'!B9)</f>
         <v/>
       </c>
       <c r="C71" s="39">
-        <f>IF('Implementation Planning'!C11="","",'Implementation Planning'!C11)</f>
+        <f>IF('Implementation Planning'!C9="","",'Implementation Planning'!C9)</f>
         <v/>
       </c>
       <c r="D71" s="39">
-        <f>IF('Implementation Planning'!D11="","",'Implementation Planning'!D11)</f>
+        <f>IF('Implementation Planning'!D9="","",'Implementation Planning'!D9)</f>
         <v/>
       </c>
       <c r="E71" s="39">
-        <f>IF('Implementation Planning'!E11="","",'Implementation Planning'!E11)</f>
+        <f>IF('Implementation Planning'!E9="","",'Implementation Planning'!E9)</f>
         <v/>
       </c>
       <c r="F71" s="40">
-        <f>IF('Implementation Planning'!F11="","",'Implementation Planning'!F11)</f>
+        <f>IF('Implementation Planning'!F9="","",'Implementation Planning'!F9)</f>
         <v/>
       </c>
       <c r="G71" s="39">
-        <f>IF('Implementation Planning'!G11="","",'Implementation Planning'!G11)</f>
+        <f>IF('Implementation Planning'!G9="","",'Implementation Planning'!G9)</f>
         <v/>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="41">
-        <f>IF('Risk &amp; Constraints'!A2="","",'Risk &amp; Constraints'!A2)</f>
+        <f>IF('Implementation Planning'!A10="","",'Implementation Planning'!A10)</f>
         <v/>
       </c>
       <c r="B72" s="41">
-        <f>IF('Risk &amp; Constraints'!B2="","",'Risk &amp; Constraints'!B2)</f>
+        <f>IF('Implementation Planning'!B10="","",'Implementation Planning'!B10)</f>
         <v/>
       </c>
       <c r="C72" s="41">
-        <f>IF('Risk &amp; Constraints'!C2="","",'Risk &amp; Constraints'!C2)</f>
+        <f>IF('Implementation Planning'!C10="","",'Implementation Planning'!C10)</f>
         <v/>
       </c>
       <c r="D72" s="41">
-        <f>IF('Risk &amp; Constraints'!D2="","",'Risk &amp; Constraints'!D2)</f>
+        <f>IF('Implementation Planning'!D10="","",'Implementation Planning'!D10)</f>
         <v/>
       </c>
       <c r="E72" s="41">
-        <f>IF('Risk &amp; Constraints'!E2="","",'Risk &amp; Constraints'!E2)</f>
+        <f>IF('Implementation Planning'!E10="","",'Implementation Planning'!E10)</f>
         <v/>
       </c>
       <c r="F72" s="40">
-        <f>IF('Risk &amp; Constraints'!F2="","",'Risk &amp; Constraints'!F2)</f>
+        <f>IF('Implementation Planning'!F10="","",'Implementation Planning'!F10)</f>
         <v/>
       </c>
       <c r="G72" s="41">
-        <f>IF('Risk &amp; Constraints'!G2="","",'Risk &amp; Constraints'!G2)</f>
+        <f>IF('Implementation Planning'!G10="","",'Implementation Planning'!G10)</f>
         <v/>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="39">
-        <f>IF('Risk &amp; Constraints'!A3="","",'Risk &amp; Constraints'!A3)</f>
+        <f>IF('Implementation Planning'!A11="","",'Implementation Planning'!A11)</f>
         <v/>
       </c>
       <c r="B73" s="39">
-        <f>IF('Risk &amp; Constraints'!B3="","",'Risk &amp; Constraints'!B3)</f>
+        <f>IF('Implementation Planning'!B11="","",'Implementation Planning'!B11)</f>
         <v/>
       </c>
       <c r="C73" s="39">
-        <f>IF('Risk &amp; Constraints'!C3="","",'Risk &amp; Constraints'!C3)</f>
+        <f>IF('Implementation Planning'!C11="","",'Implementation Planning'!C11)</f>
         <v/>
       </c>
       <c r="D73" s="39">
-        <f>IF('Risk &amp; Constraints'!D3="","",'Risk &amp; Constraints'!D3)</f>
+        <f>IF('Implementation Planning'!D11="","",'Implementation Planning'!D11)</f>
         <v/>
       </c>
       <c r="E73" s="39">
-        <f>IF('Risk &amp; Constraints'!E3="","",'Risk &amp; Constraints'!E3)</f>
+        <f>IF('Implementation Planning'!E11="","",'Implementation Planning'!E11)</f>
         <v/>
       </c>
       <c r="F73" s="40">
-        <f>IF('Risk &amp; Constraints'!F3="","",'Risk &amp; Constraints'!F3)</f>
+        <f>IF('Implementation Planning'!F11="","",'Implementation Planning'!F11)</f>
         <v/>
       </c>
       <c r="G73" s="39">
-        <f>IF('Risk &amp; Constraints'!G3="","",'Risk &amp; Constraints'!G3)</f>
+        <f>IF('Implementation Planning'!G11="","",'Implementation Planning'!G11)</f>
         <v/>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="41">
-        <f>IF('Risk &amp; Constraints'!A4="","",'Risk &amp; Constraints'!A4)</f>
+        <f>IF('Risk &amp; Constraints'!A2="","",'Risk &amp; Constraints'!A2)</f>
         <v/>
       </c>
       <c r="B74" s="41">
-        <f>IF('Risk &amp; Constraints'!B4="","",'Risk &amp; Constraints'!B4)</f>
+        <f>IF('Risk &amp; Constraints'!B2="","",'Risk &amp; Constraints'!B2)</f>
         <v/>
       </c>
       <c r="C74" s="41">
-        <f>IF('Risk &amp; Constraints'!C4="","",'Risk &amp; Constraints'!C4)</f>
+        <f>IF('Risk &amp; Constraints'!C2="","",'Risk &amp; Constraints'!C2)</f>
         <v/>
       </c>
       <c r="D74" s="41">
-        <f>IF('Risk &amp; Constraints'!D4="","",'Risk &amp; Constraints'!D4)</f>
+        <f>IF('Risk &amp; Constraints'!D2="","",'Risk &amp; Constraints'!D2)</f>
         <v/>
       </c>
       <c r="E74" s="41">
-        <f>IF('Risk &amp; Constraints'!E4="","",'Risk &amp; Constraints'!E4)</f>
+        <f>IF('Risk &amp; Constraints'!E2="","",'Risk &amp; Constraints'!E2)</f>
         <v/>
       </c>
       <c r="F74" s="40">
-        <f>IF('Risk &amp; Constraints'!F4="","",'Risk &amp; Constraints'!F4)</f>
+        <f>IF('Risk &amp; Constraints'!F2="","",'Risk &amp; Constraints'!F2)</f>
         <v/>
       </c>
       <c r="G74" s="41">
-        <f>IF('Risk &amp; Constraints'!G4="","",'Risk &amp; Constraints'!G4)</f>
+        <f>IF('Risk &amp; Constraints'!G2="","",'Risk &amp; Constraints'!G2)</f>
         <v/>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="39">
-        <f>IF('Risk &amp; Constraints'!A5="","",'Risk &amp; Constraints'!A5)</f>
+        <f>IF('Risk &amp; Constraints'!A3="","",'Risk &amp; Constraints'!A3)</f>
         <v/>
       </c>
       <c r="B75" s="39">
-        <f>IF('Risk &amp; Constraints'!B5="","",'Risk &amp; Constraints'!B5)</f>
+        <f>IF('Risk &amp; Constraints'!B3="","",'Risk &amp; Constraints'!B3)</f>
         <v/>
       </c>
       <c r="C75" s="39">
-        <f>IF('Risk &amp; Constraints'!C5="","",'Risk &amp; Constraints'!C5)</f>
+        <f>IF('Risk &amp; Constraints'!C3="","",'Risk &amp; Constraints'!C3)</f>
         <v/>
       </c>
       <c r="D75" s="39">
-        <f>IF('Risk &amp; Constraints'!D5="","",'Risk &amp; Constraints'!D5)</f>
+        <f>IF('Risk &amp; Constraints'!D3="","",'Risk &amp; Constraints'!D3)</f>
         <v/>
       </c>
       <c r="E75" s="39">
-        <f>IF('Risk &amp; Constraints'!E5="","",'Risk &amp; Constraints'!E5)</f>
+        <f>IF('Risk &amp; Constraints'!E3="","",'Risk &amp; Constraints'!E3)</f>
         <v/>
       </c>
       <c r="F75" s="40">
-        <f>IF('Risk &amp; Constraints'!F5="","",'Risk &amp; Constraints'!F5)</f>
+        <f>IF('Risk &amp; Constraints'!F3="","",'Risk &amp; Constraints'!F3)</f>
         <v/>
       </c>
       <c r="G75" s="39">
-        <f>IF('Risk &amp; Constraints'!G5="","",'Risk &amp; Constraints'!G5)</f>
+        <f>IF('Risk &amp; Constraints'!G3="","",'Risk &amp; Constraints'!G3)</f>
         <v/>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="41">
-        <f>IF('Risk &amp; Constraints'!A6="","",'Risk &amp; Constraints'!A6)</f>
+        <f>IF('Risk &amp; Constraints'!A4="","",'Risk &amp; Constraints'!A4)</f>
         <v/>
       </c>
       <c r="B76" s="41">
-        <f>IF('Risk &amp; Constraints'!B6="","",'Risk &amp; Constraints'!B6)</f>
+        <f>IF('Risk &amp; Constraints'!B4="","",'Risk &amp; Constraints'!B4)</f>
         <v/>
       </c>
       <c r="C76" s="41">
-        <f>IF('Risk &amp; Constraints'!C6="","",'Risk &amp; Constraints'!C6)</f>
+        <f>IF('Risk &amp; Constraints'!C4="","",'Risk &amp; Constraints'!C4)</f>
         <v/>
       </c>
       <c r="D76" s="41">
-        <f>IF('Risk &amp; Constraints'!D6="","",'Risk &amp; Constraints'!D6)</f>
+        <f>IF('Risk &amp; Constraints'!D4="","",'Risk &amp; Constraints'!D4)</f>
         <v/>
       </c>
       <c r="E76" s="41">
-        <f>IF('Risk &amp; Constraints'!E6="","",'Risk &amp; Constraints'!E6)</f>
+        <f>IF('Risk &amp; Constraints'!E4="","",'Risk &amp; Constraints'!E4)</f>
         <v/>
       </c>
       <c r="F76" s="40">
-        <f>IF('Risk &amp; Constraints'!F6="","",'Risk &amp; Constraints'!F6)</f>
+        <f>IF('Risk &amp; Constraints'!F4="","",'Risk &amp; Constraints'!F4)</f>
         <v/>
       </c>
       <c r="G76" s="41">
-        <f>IF('Risk &amp; Constraints'!G6="","",'Risk &amp; Constraints'!G6)</f>
+        <f>IF('Risk &amp; Constraints'!G4="","",'Risk &amp; Constraints'!G4)</f>
         <v/>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="39">
-        <f>IF('Risk &amp; Constraints'!A7="","",'Risk &amp; Constraints'!A7)</f>
+        <f>IF('Risk &amp; Constraints'!A5="","",'Risk &amp; Constraints'!A5)</f>
         <v/>
       </c>
       <c r="B77" s="39">
-        <f>IF('Risk &amp; Constraints'!B7="","",'Risk &amp; Constraints'!B7)</f>
+        <f>IF('Risk &amp; Constraints'!B5="","",'Risk &amp; Constraints'!B5)</f>
         <v/>
       </c>
       <c r="C77" s="39">
-        <f>IF('Risk &amp; Constraints'!C7="","",'Risk &amp; Constraints'!C7)</f>
+        <f>IF('Risk &amp; Constraints'!C5="","",'Risk &amp; Constraints'!C5)</f>
         <v/>
       </c>
       <c r="D77" s="39">
-        <f>IF('Risk &amp; Constraints'!D7="","",'Risk &amp; Constraints'!D7)</f>
+        <f>IF('Risk &amp; Constraints'!D5="","",'Risk &amp; Constraints'!D5)</f>
         <v/>
       </c>
       <c r="E77" s="39">
-        <f>IF('Risk &amp; Constraints'!E7="","",'Risk &amp; Constraints'!E7)</f>
+        <f>IF('Risk &amp; Constraints'!E5="","",'Risk &amp; Constraints'!E5)</f>
         <v/>
       </c>
       <c r="F77" s="40">
-        <f>IF('Risk &amp; Constraints'!F7="","",'Risk &amp; Constraints'!F7)</f>
+        <f>IF('Risk &amp; Constraints'!F5="","",'Risk &amp; Constraints'!F5)</f>
         <v/>
       </c>
       <c r="G77" s="39">
-        <f>IF('Risk &amp; Constraints'!G7="","",'Risk &amp; Constraints'!G7)</f>
+        <f>IF('Risk &amp; Constraints'!G5="","",'Risk &amp; Constraints'!G5)</f>
         <v/>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="41">
-        <f>IF('Risk &amp; Constraints'!A8="","",'Risk &amp; Constraints'!A8)</f>
+        <f>IF('Risk &amp; Constraints'!A6="","",'Risk &amp; Constraints'!A6)</f>
         <v/>
       </c>
       <c r="B78" s="41">
-        <f>IF('Risk &amp; Constraints'!B8="","",'Risk &amp; Constraints'!B8)</f>
+        <f>IF('Risk &amp; Constraints'!B6="","",'Risk &amp; Constraints'!B6)</f>
         <v/>
       </c>
       <c r="C78" s="41">
-        <f>IF('Risk &amp; Constraints'!C8="","",'Risk &amp; Constraints'!C8)</f>
+        <f>IF('Risk &amp; Constraints'!C6="","",'Risk &amp; Constraints'!C6)</f>
         <v/>
       </c>
       <c r="D78" s="41">
-        <f>IF('Risk &amp; Constraints'!D8="","",'Risk &amp; Constraints'!D8)</f>
+        <f>IF('Risk &amp; Constraints'!D6="","",'Risk &amp; Constraints'!D6)</f>
         <v/>
       </c>
       <c r="E78" s="41">
-        <f>IF('Risk &amp; Constraints'!E8="","",'Risk &amp; Constraints'!E8)</f>
+        <f>IF('Risk &amp; Constraints'!E6="","",'Risk &amp; Constraints'!E6)</f>
         <v/>
       </c>
       <c r="F78" s="40">
-        <f>IF('Risk &amp; Constraints'!F8="","",'Risk &amp; Constraints'!F8)</f>
+        <f>IF('Risk &amp; Constraints'!F6="","",'Risk &amp; Constraints'!F6)</f>
         <v/>
       </c>
       <c r="G78" s="41">
-        <f>IF('Risk &amp; Constraints'!G8="","",'Risk &amp; Constraints'!G8)</f>
+        <f>IF('Risk &amp; Constraints'!G6="","",'Risk &amp; Constraints'!G6)</f>
         <v/>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="39">
+        <f>IF('Risk &amp; Constraints'!A7="","",'Risk &amp; Constraints'!A7)</f>
+        <v/>
+      </c>
+      <c r="B79" s="39">
+        <f>IF('Risk &amp; Constraints'!B7="","",'Risk &amp; Constraints'!B7)</f>
+        <v/>
+      </c>
+      <c r="C79" s="39">
+        <f>IF('Risk &amp; Constraints'!C7="","",'Risk &amp; Constraints'!C7)</f>
+        <v/>
+      </c>
+      <c r="D79" s="39">
+        <f>IF('Risk &amp; Constraints'!D7="","",'Risk &amp; Constraints'!D7)</f>
+        <v/>
+      </c>
+      <c r="E79" s="39">
+        <f>IF('Risk &amp; Constraints'!E7="","",'Risk &amp; Constraints'!E7)</f>
+        <v/>
+      </c>
+      <c r="F79" s="40">
+        <f>IF('Risk &amp; Constraints'!F7="","",'Risk &amp; Constraints'!F7)</f>
+        <v/>
+      </c>
+      <c r="G79" s="39">
+        <f>IF('Risk &amp; Constraints'!G7="","",'Risk &amp; Constraints'!G7)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="41">
+        <f>IF('Risk &amp; Constraints'!A8="","",'Risk &amp; Constraints'!A8)</f>
+        <v/>
+      </c>
+      <c r="B80" s="41">
+        <f>IF('Risk &amp; Constraints'!B8="","",'Risk &amp; Constraints'!B8)</f>
+        <v/>
+      </c>
+      <c r="C80" s="41">
+        <f>IF('Risk &amp; Constraints'!C8="","",'Risk &amp; Constraints'!C8)</f>
+        <v/>
+      </c>
+      <c r="D80" s="41">
+        <f>IF('Risk &amp; Constraints'!D8="","",'Risk &amp; Constraints'!D8)</f>
+        <v/>
+      </c>
+      <c r="E80" s="41">
+        <f>IF('Risk &amp; Constraints'!E8="","",'Risk &amp; Constraints'!E8)</f>
+        <v/>
+      </c>
+      <c r="F80" s="40">
+        <f>IF('Risk &amp; Constraints'!F8="","",'Risk &amp; Constraints'!F8)</f>
+        <v/>
+      </c>
+      <c r="G80" s="41">
+        <f>IF('Risk &amp; Constraints'!G8="","",'Risk &amp; Constraints'!G8)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="39">
         <f>IF('Risk &amp; Constraints'!A9="","",'Risk &amp; Constraints'!A9)</f>
         <v/>
       </c>
-      <c r="B79" s="39">
+      <c r="B81" s="39">
         <f>IF('Risk &amp; Constraints'!B9="","",'Risk &amp; Constraints'!B9)</f>
         <v/>
       </c>
-      <c r="C79" s="39">
+      <c r="C81" s="39">
         <f>IF('Risk &amp; Constraints'!C9="","",'Risk &amp; Constraints'!C9)</f>
         <v/>
       </c>
-      <c r="D79" s="39">
+      <c r="D81" s="39">
         <f>IF('Risk &amp; Constraints'!D9="","",'Risk &amp; Constraints'!D9)</f>
         <v/>
       </c>
-      <c r="E79" s="39">
+      <c r="E81" s="39">
         <f>IF('Risk &amp; Constraints'!E9="","",'Risk &amp; Constraints'!E9)</f>
         <v/>
       </c>
-      <c r="F79" s="40">
+      <c r="F81" s="40">
         <f>IF('Risk &amp; Constraints'!F9="","",'Risk &amp; Constraints'!F9)</f>
         <v/>
       </c>
-      <c r="G79" s="39">
+      <c r="G81" s="39">
         <f>IF('Risk &amp; Constraints'!G9="","",'Risk &amp; Constraints'!G9)</f>
         <v/>
       </c>
@@ -3275,7 +3335,7 @@
       </c>
       <c r="D2" s="41" t="inlineStr">
         <is>
-          <t>What is the name of your AI Workstation project?</t>
+          <t>What is the name of your CI/CD infrastructure project?</t>
         </is>
       </c>
       <c r="E2" s="41" t="inlineStr">
@@ -3308,12 +3368,12 @@
       </c>
       <c r="D3" s="39" t="inlineStr">
         <is>
-          <t>Who is the primary stakeholder for this AI infrastructure project?</t>
+          <t>Who is the primary stakeholder for this DevOps infrastructure project?</t>
         </is>
       </c>
       <c r="E3" s="39" t="inlineStr">
         <is>
-          <t>Name, role, and decision-making authority</t>
+          <t>Name, role, and decision-making authority (typically VP Engineering or DevOps lead)</t>
         </is>
       </c>
       <c r="F3" s="40" t="n"/>
@@ -3341,18 +3401,18 @@
       </c>
       <c r="D4" s="41" t="inlineStr">
         <is>
-          <t>What AI/ML challenges are you trying to solve with local GPU infrastructure?</t>
+          <t>What CI/CD challenges are you trying to solve with on-premises infrastructure?</t>
         </is>
       </c>
       <c r="E4" s="41" t="inlineStr">
         <is>
-          <t>Common challenges: High cloud GPU costs, Data transfer bottlenecks, Data sovereignty concerns, Slow model iteration, Limited flexibility</t>
+          <t>Common challenges: High cloud CI/CD costs (GitHub Actions, CircleCI), Slow build queue times, Data sovereignty for source code, Limited build agent capacity, Vendor lock-in concerns</t>
         </is>
       </c>
       <c r="F4" s="40" t="n"/>
       <c r="G4" s="41" t="inlineStr">
         <is>
-          <t>Primary business driver for on-premises AI investment</t>
+          <t>Primary business driver for on-prem CI/CD investment</t>
         </is>
       </c>
     </row>
@@ -3374,12 +3434,12 @@
       </c>
       <c r="D5" s="39" t="inlineStr">
         <is>
-          <t>What is your current AI/ML infrastructure setup?</t>
+          <t>What is your current CI/CD platform and infrastructure?</t>
         </is>
       </c>
       <c r="E5" s="39" t="inlineStr">
         <is>
-          <t>Describe cloud instances, on-prem servers, GPU resources, and pain points</t>
+          <t>Describe: Cloud CI/CD (GitHub Actions, GitLab.com, CircleCI), Self-hosted (Jenkins, GitLab), Build agent types, Pain points</t>
         </is>
       </c>
       <c r="F5" s="40" t="n"/>
@@ -3407,18 +3467,18 @@
       </c>
       <c r="D6" s="41" t="inlineStr">
         <is>
-          <t>How many data scientists and ML engineers need dedicated workstations?</t>
+          <t>How many developers need CI/CD build and deployment capabilities?</t>
         </is>
       </c>
       <c r="E6" s="41" t="inlineStr">
         <is>
-          <t>Typical ranges: 1-5, 6-10, 11-25, 25+</t>
+          <t>Typical ranges: 10-25 developers, 26-50 developers, 51-100 developers, 100+ developers</t>
         </is>
       </c>
       <c r="F6" s="40" t="n"/>
       <c r="G6" s="41" t="inlineStr">
         <is>
-          <t>Determines hardware quantity and deployment scale</t>
+          <t>Determines build agent quantity and scale</t>
         </is>
       </c>
     </row>
@@ -3435,23 +3495,23 @@
       </c>
       <c r="C7" s="39" t="inlineStr">
         <is>
-          <t>Workload Types</t>
+          <t>Build Volume</t>
         </is>
       </c>
       <c r="D7" s="39" t="inlineStr">
         <is>
-          <t>What types of AI/ML workloads will you run?</t>
+          <t>What is your average daily build volume?</t>
         </is>
       </c>
       <c r="E7" s="39" t="inlineStr">
         <is>
-          <t>Common types: LLM training, Computer vision, NLP, Reinforcement learning, Data preprocessing, Model inference</t>
+          <t>Common ranges: 100-500 builds/day, 500-2000 builds/day, 2000-5000 builds/day, 5000+ builds/day</t>
         </is>
       </c>
       <c r="F7" s="40" t="n"/>
       <c r="G7" s="39" t="inlineStr">
         <is>
-          <t>Workload classification drives GPU and storage sizing</t>
+          <t>Workload sizing for build farm capacity</t>
         </is>
       </c>
     </row>
@@ -3473,12 +3533,12 @@
       </c>
       <c r="D8" s="41" t="inlineStr">
         <is>
-          <t>What are your primary goals for deploying AI workstations?</t>
+          <t>What are your primary goals for deploying on-premises CI/CD infrastructure?</t>
         </is>
       </c>
       <c r="E8" s="41" t="inlineStr">
         <is>
-          <t>Common goals: Reduce cloud costs, Improve data security, Accelerate model training, Enable larger models, Support collaborative research</t>
+          <t>Common goals: Reduce cloud costs, Improve build performance, Enable air-gapped builds, Data sovereignty, Consistent build times, Artifact management control</t>
         </is>
       </c>
       <c r="F8" s="40" t="n"/>
@@ -3506,12 +3566,12 @@
       </c>
       <c r="D9" s="39" t="inlineStr">
         <is>
-          <t>How will you measure AI workstation deployment success?</t>
+          <t>How will you measure CI/CD infrastructure deployment success?</t>
         </is>
       </c>
       <c r="E9" s="39" t="inlineStr">
         <is>
-          <t>Define KPIs: training time reduction, cost savings vs cloud, model accuracy improvements, developer productivity</t>
+          <t>Define KPIs: Build queue time &lt;5 min, Cloud cost savings %, Build success rate 95%+, Artifact download speed, Developer NPS score</t>
         </is>
       </c>
       <c r="F9" s="40" t="n"/>
@@ -3539,18 +3599,18 @@
       </c>
       <c r="D10" s="41" t="inlineStr">
         <is>
-          <t>What is your expected timeline for AI workstation deployment?</t>
+          <t>What is your expected timeline for CI/CD infrastructure deployment?</t>
         </is>
       </c>
       <c r="E10" s="41" t="inlineStr">
         <is>
-          <t>Typical ranges: 0-4 weeks, 1-3 months, 3-6 months, 6+ months</t>
+          <t>Typical ranges: 0-4 weeks pilot, 1-3 months phased migration, 3-6 months full cutover</t>
         </is>
       </c>
       <c r="F10" s="40" t="n"/>
       <c r="G10" s="41" t="inlineStr">
         <is>
-          <t>Project timeline expectations and procurement constraints</t>
+          <t>Project timeline expectations and migration constraints</t>
         </is>
       </c>
     </row>
@@ -3572,12 +3632,12 @@
       </c>
       <c r="D11" s="39" t="inlineStr">
         <is>
-          <t>What is your approved budget range for AI infrastructure?</t>
+          <t>What is your approved budget range for CI/CD infrastructure?</t>
         </is>
       </c>
       <c r="E11" s="39" t="inlineStr">
         <is>
-          <t>Common ranges: $50K-$250K, $250K-$500K, $500K-$1M, $1M+. Include both CapEx and OpEx</t>
+          <t>Common ranges: $200K-$500K, $500K-$1M, $1M-$2M, $2M+. Include both CapEx (servers) and OpEx (licenses)</t>
         </is>
       </c>
       <c r="F11" s="40" t="n"/>
@@ -3605,12 +3665,12 @@
       </c>
       <c r="D12" s="41" t="inlineStr">
         <is>
-          <t>What is your long-term vision for AI/ML infrastructure?</t>
+          <t>What is your long-term vision for DevOps infrastructure?</t>
         </is>
       </c>
       <c r="E12" s="41" t="inlineStr">
         <is>
-          <t>Consider expansion to more users, GPU clusters, distributed training, MLOps platform</t>
+          <t>Consider: Expansion to more teams, Multi-cloud CI/CD, Enterprise artifact repository, Security scanning integration, ML model training pipelines</t>
         </is>
       </c>
       <c r="F12" s="40" t="n"/>
@@ -3638,12 +3698,12 @@
       </c>
       <c r="D13" s="39" t="inlineStr">
         <is>
-          <t>How do you expect AI team size and compute needs to change over 3 years?</t>
+          <t>How do you expect developer count and build volume to change over 3 years?</t>
         </is>
       </c>
       <c r="E13" s="39" t="inlineStr">
         <is>
-          <t>Provide current team size and projected annual growth rate</t>
+          <t>Provide current developer count and projected annual growth rate (10%, 25%, 50%)</t>
         </is>
       </c>
       <c r="F13" s="40" t="n"/>
@@ -3671,12 +3731,12 @@
       </c>
       <c r="D14" s="41" t="inlineStr">
         <is>
-          <t>What is your current monthly cloud GPU spend?</t>
+          <t>What is your current monthly cloud CI/CD spend?</t>
         </is>
       </c>
       <c r="E14" s="41" t="inlineStr">
         <is>
-          <t>Calculate: instance type × hours/day × days/month × $/hour. Example: p3.2xlarge (V100) × 8hrs × 22 days × $3.06 = $540/month</t>
+          <t>Calculate: User licenses + runner minutes + artifact storage + egress. Example: GitHub Actions 50 users × $21 + $5K runners = $6K/month</t>
         </is>
       </c>
       <c r="F14" s="40" t="n"/>
@@ -3704,18 +3764,18 @@
       </c>
       <c r="D15" s="39" t="inlineStr">
         <is>
-          <t>What cloud GPU instance types are you currently using?</t>
+          <t>What cloud CI/CD platform costs are you incurring?</t>
         </is>
       </c>
       <c r="E15" s="39" t="inlineStr">
         <is>
-          <t>Common AWS: p3 (V100), p4d (A100), g5 (A10G). Azure: NC-series, ND-series. GCP: A2 instances</t>
+          <t>Common: GitHub Actions (per-user + minutes), GitLab.com (per-user), CircleCI (containers), Azure DevOps (parallel jobs)</t>
         </is>
       </c>
       <c r="F15" s="40" t="n"/>
       <c r="G15" s="39" t="inlineStr">
         <is>
-          <t>Performance and cost comparison with on-prem</t>
+          <t>Cost breakdown and comparison</t>
         </is>
       </c>
     </row>
@@ -3737,12 +3797,12 @@
       </c>
       <c r="D16" s="41" t="inlineStr">
         <is>
-          <t>What data transfer costs do you incur moving datasets to/from cloud?</t>
+          <t>What artifact storage and egress costs do you incur?</t>
         </is>
       </c>
       <c r="E16" s="41" t="inlineStr">
         <is>
-          <t>AWS S3 egress: $0.09/GB. Large datasets (multi-TB) incur significant costs</t>
+          <t>Cloud costs: Artifact storage ($0.10/GB/month), Egress fees ($0.09/GB). Large repos incur significant egress charges</t>
         </is>
       </c>
       <c r="F16" s="40" t="n"/>
@@ -3775,7 +3835,7 @@
       </c>
       <c r="E17" s="39" t="inlineStr">
         <is>
-          <t>On-prem AI workstations typically achieve ROI in 3-6 months vs cloud GPU costs</t>
+          <t>On-prem CI/CD typically achieves ROI in 18-24 months vs cloud through cost avoidance and consistent performance</t>
         </is>
       </c>
       <c r="F17" s="40" t="n"/>
@@ -3808,7 +3868,7 @@
       </c>
       <c r="E18" s="41" t="inlineStr">
         <is>
-          <t>Consider: Dell Financial Services leasing (converts CapEx to OpEx), budget approval processes</t>
+          <t>Consider: Dell Financial Services leasing (converts CapEx to OpEx), Budget approval processes, Cash flow constraints</t>
         </is>
       </c>
       <c r="F18" s="40" t="n"/>
@@ -3897,23 +3957,23 @@
       </c>
       <c r="C2" s="41" t="inlineStr">
         <is>
-          <t>ML Frameworks</t>
+          <t>CI/CD Platform</t>
         </is>
       </c>
       <c r="D2" s="41" t="inlineStr">
         <is>
-          <t>What ML frameworks and libraries do you currently use?</t>
+          <t>What CI/CD platform are you currently using?</t>
         </is>
       </c>
       <c r="E2" s="41" t="inlineStr">
         <is>
-          <t>Common frameworks: PyTorch, TensorFlow, JAX, scikit-learn, Hugging Face Transformers, XGBoost</t>
+          <t>Common platforms: GitHub Actions, GitLab.com, GitLab self-hosted, Jenkins, CircleCI, Azure DevOps, Bitbucket Pipelines</t>
         </is>
       </c>
       <c r="F2" s="40" t="n"/>
       <c r="G2" s="41" t="inlineStr">
         <is>
-          <t>Software configuration and compatibility requirements</t>
+          <t>Current platform for migration planning</t>
         </is>
       </c>
     </row>
@@ -3930,23 +3990,23 @@
       </c>
       <c r="C3" s="39" t="inlineStr">
         <is>
-          <t>ML Frameworks</t>
+          <t>CI/CD Platform</t>
         </is>
       </c>
       <c r="D3" s="39" t="inlineStr">
         <is>
-          <t>What specific ML framework versions are required?</t>
+          <t>What CI/CD platform do you prefer for on-premises deployment?</t>
         </is>
       </c>
       <c r="E3" s="39" t="inlineStr">
         <is>
-          <t>List versions if critical for model compatibility</t>
+          <t>Options: GitLab Premium self-hosted, GitLab Ultimate, Jenkins (open-source), Azure DevOps Server, Bitbucket Data Center</t>
         </is>
       </c>
       <c r="F3" s="40" t="n"/>
       <c r="G3" s="39" t="inlineStr">
         <is>
-          <t>Version-specific dependencies affect installation</t>
+          <t>Platform selection and licensing requirements</t>
         </is>
       </c>
     </row>
@@ -3963,23 +4023,23 @@
       </c>
       <c r="C4" s="41" t="inlineStr">
         <is>
-          <t>GPU Requirements</t>
+          <t>Source Control</t>
         </is>
       </c>
       <c r="D4" s="41" t="inlineStr">
         <is>
-          <t>What GPU memory capacity is required for your largest models?</t>
+          <t>What source control system do you use?</t>
         </is>
       </c>
       <c r="E4" s="41" t="inlineStr">
         <is>
-          <t>Options: 24GB (RTX A5000), 48GB (RTX A6000), 80GB (A100 PCIe). Consider model size + batch size + gradient accumulation</t>
+          <t>Options: GitHub, GitLab, Bitbucket, Azure DevOps Repos, Self-hosted Git</t>
         </is>
       </c>
       <c r="F4" s="40" t="n"/>
       <c r="G4" s="41" t="inlineStr">
         <is>
-          <t>GPU selection (A5000 vs A6000 vs A100)</t>
+          <t>SCM integration requirements</t>
         </is>
       </c>
     </row>
@@ -3996,23 +4056,23 @@
       </c>
       <c r="C5" s="39" t="inlineStr">
         <is>
-          <t>GPU Requirements</t>
+          <t>Build Types</t>
         </is>
       </c>
       <c r="D5" s="39" t="inlineStr">
         <is>
-          <t>Do you need multi-GPU support for distributed training?</t>
+          <t>What programming languages and build types do you support?</t>
         </is>
       </c>
       <c r="E5" s="39" t="inlineStr">
         <is>
-          <t>Options: Single GPU adequate, 2-4 GPUs per workstation, GPU cluster needed</t>
+          <t>Common: Node.js/npm, Java/Maven/Gradle, Python, Go, .NET/C#, Docker images, Mobile (iOS/Android)</t>
         </is>
       </c>
       <c r="F5" s="40" t="n"/>
       <c r="G5" s="39" t="inlineStr">
         <is>
-          <t>Multi-GPU configuration and NVLink requirements</t>
+          <t>Build agent configuration and tooling requirements</t>
         </is>
       </c>
     </row>
@@ -4029,23 +4089,23 @@
       </c>
       <c r="C6" s="41" t="inlineStr">
         <is>
-          <t>Training Duration</t>
+          <t>Build Duration</t>
         </is>
       </c>
       <c r="D6" s="41" t="inlineStr">
         <is>
-          <t>What is your typical model training duration with current infrastructure?</t>
+          <t>What is your average build duration?</t>
         </is>
       </c>
       <c r="E6" s="41" t="inlineStr">
         <is>
-          <t>Specify hours or days; helps validate GPU specs adequate</t>
+          <t>Typical: 5-10 minutes (microservices), 10-30 minutes (standard apps), 30-60 minutes (monoliths), 60+ minutes (complex builds)</t>
         </is>
       </c>
       <c r="F6" s="40" t="n"/>
       <c r="G6" s="41" t="inlineStr">
         <is>
-          <t>Performance baseline for improvement measurement</t>
+          <t>Compute capacity and parallelism requirements</t>
         </is>
       </c>
     </row>
@@ -4062,23 +4122,23 @@
       </c>
       <c r="C7" s="39" t="inlineStr">
         <is>
-          <t>Training Duration</t>
+          <t>Concurrent Builds</t>
         </is>
       </c>
       <c r="D7" s="39" t="inlineStr">
         <is>
-          <t>What is your target/acceptable model training time?</t>
+          <t>How many concurrent builds do you need to support?</t>
         </is>
       </c>
       <c r="E7" s="39" t="inlineStr">
         <is>
-          <t>Target duration affects GPU quantity and performance tier</t>
+          <t>Calculate: developer count × average commits/day ÷ work hours. Example: 50 devs × 4 commits ÷ 8 hours = 25 concurrent builds</t>
         </is>
       </c>
       <c r="F7" s="40" t="n"/>
       <c r="G7" s="39" t="inlineStr">
         <is>
-          <t>Performance requirements for solution sizing</t>
+          <t>Build agent pool sizing</t>
         </is>
       </c>
     </row>
@@ -4095,23 +4155,23 @@
       </c>
       <c r="C8" s="41" t="inlineStr">
         <is>
-          <t>Dataset Size</t>
+          <t>Build Agents</t>
         </is>
       </c>
       <c r="D8" s="41" t="inlineStr">
         <is>
-          <t>What is your typical training dataset size per project?</t>
+          <t>What build agent operating systems are required?</t>
         </is>
       </c>
       <c r="E8" s="41" t="inlineStr">
         <is>
-          <t>Ranges: &lt; 1TB, 1-5TB, 5-10TB, 10TB+</t>
+          <t>Options: Linux (Ubuntu, RHEL), Windows Server, macOS (iOS builds), Docker containers</t>
         </is>
       </c>
       <c r="F8" s="40" t="n"/>
       <c r="G8" s="41" t="inlineStr">
         <is>
-          <t>Determines local SSD capacity requirements</t>
+          <t>Agent OS and licensing requirements</t>
         </is>
       </c>
     </row>
@@ -4128,23 +4188,23 @@
       </c>
       <c r="C9" s="39" t="inlineStr">
         <is>
-          <t>Dataset Storage</t>
+          <t>Artifact Repository</t>
         </is>
       </c>
       <c r="D9" s="39" t="inlineStr">
         <is>
-          <t>Where are training datasets currently stored?</t>
+          <t>Do you need artifact repository and package management?</t>
         </is>
       </c>
       <c r="E9" s="39" t="inlineStr">
         <is>
-          <t>Sources: AWS S3, Azure Blob, Google Cloud Storage, On-prem NAS, Local drives, SFTP server</t>
+          <t>Options: JFrog Artifactory, Sonatype Nexus, GitLab Package Registry, Azure Artifacts, No centralized repository</t>
         </is>
       </c>
       <c r="F9" s="40" t="n"/>
       <c r="G9" s="39" t="inlineStr">
         <is>
-          <t>Data migration and integration planning</t>
+          <t>Artifact management platform selection</t>
         </is>
       </c>
     </row>
@@ -4161,23 +4221,23 @@
       </c>
       <c r="C10" s="41" t="inlineStr">
         <is>
-          <t>Shared Storage</t>
+          <t>Artifact Types</t>
         </is>
       </c>
       <c r="D10" s="41" t="inlineStr">
         <is>
-          <t>Do you need shared dataset storage for team collaboration?</t>
+          <t>What artifact types need to be stored and managed?</t>
         </is>
       </c>
       <c r="E10" s="41" t="inlineStr">
         <is>
-          <t>Options: Yes (team dataset repository), No (individual local storage only)</t>
+          <t>Artifact types: Maven/JAR, npm packages, Docker images, Python wheels, NuGet packages, Generic binaries</t>
         </is>
       </c>
       <c r="F10" s="40" t="n"/>
       <c r="G10" s="41" t="inlineStr">
         <is>
-          <t>PowerScale NAS for centralized dataset access</t>
+          <t>Artifact storage capacity and format support</t>
         </is>
       </c>
     </row>
@@ -4194,23 +4254,23 @@
       </c>
       <c r="C11" s="39" t="inlineStr">
         <is>
-          <t>Storage Performance</t>
+          <t>Artifact Volume</t>
         </is>
       </c>
       <c r="D11" s="39" t="inlineStr">
         <is>
-          <t>What dataset loading speed is required?</t>
+          <t>What is your estimated artifact storage capacity requirement?</t>
         </is>
       </c>
       <c r="E11" s="39" t="inlineStr">
         <is>
-          <t>Typical: 1-2GB/s adequate, 3-5GB/s better, 7GB/s+ optimal. Fast NVMe reduces I/O bottlenecks</t>
+          <t>Ranges: 1-5TB (small), 5-20TB (medium), 20-50TB (large), 50TB+ (enterprise)</t>
         </is>
       </c>
       <c r="F11" s="40" t="n"/>
       <c r="G11" s="39" t="inlineStr">
         <is>
-          <t>Storage tier selection (SATA SSD vs NVMe)</t>
+          <t>Storage capacity sizing for Unity or PowerScale</t>
         </is>
       </c>
     </row>
@@ -4227,23 +4287,23 @@
       </c>
       <c r="C12" s="41" t="inlineStr">
         <is>
-          <t>Memory Requirements</t>
+          <t>Code Quality</t>
         </is>
       </c>
       <c r="D12" s="41" t="inlineStr">
         <is>
-          <t>How much system RAM do your workloads typically require?</t>
+          <t>Do you need code quality and security scanning integration?</t>
         </is>
       </c>
       <c r="E12" s="41" t="inlineStr">
         <is>
-          <t>Common: 128GB adequate, 256GB better, 512GB for large-scale preprocessing</t>
+          <t>Options: SonarQube, SonarCloud, Checkmarx, Veracode, Snyk, GitHub Advanced Security, No scanning required</t>
         </is>
       </c>
       <c r="F12" s="40" t="n"/>
       <c r="G12" s="41" t="inlineStr">
         <is>
-          <t>RAM configuration (256GB vs 512GB)</t>
+          <t>Code quality and security tooling</t>
         </is>
       </c>
     </row>
@@ -4260,23 +4320,23 @@
       </c>
       <c r="C13" s="39" t="inlineStr">
         <is>
-          <t>CPU Requirements</t>
+          <t>Container Platform</t>
         </is>
       </c>
       <c r="D13" s="39" t="inlineStr">
         <is>
-          <t>What CPU-intensive preprocessing or data tasks do you perform?</t>
+          <t>Do you use Docker or containerized build workflows?</t>
         </is>
       </c>
       <c r="E13" s="39" t="inlineStr">
         <is>
-          <t>Examples: Data augmentation, Feature engineering, Video decoding, Multi-threaded preprocessing</t>
+          <t>Container usage: No containers, Docker builds only, Docker + Kubernetes deployment, Full container-native CI/CD</t>
         </is>
       </c>
       <c r="F13" s="40" t="n"/>
       <c r="G13" s="39" t="inlineStr">
         <is>
-          <t>CPU core count and performance requirements</t>
+          <t>Container runtime and registry requirements</t>
         </is>
       </c>
     </row>
@@ -4293,23 +4353,23 @@
       </c>
       <c r="C14" s="41" t="inlineStr">
         <is>
-          <t>Operating System</t>
+          <t>Secrets Management</t>
         </is>
       </c>
       <c r="D14" s="41" t="inlineStr">
         <is>
-          <t>What operating system do you prefer for AI workstations?</t>
+          <t>What secrets management solution do you use?</t>
         </is>
       </c>
       <c r="E14" s="41" t="inlineStr">
         <is>
-          <t>Options: Ubuntu 22.04 LTS, RHEL 8/9, Windows 11 Pro with WSL2, Dual-boot</t>
+          <t>Options: HashiCorp Vault, Azure Key Vault, AWS Secrets Manager, CyberArk, GitLab CI/CD variables, None (plaintext)</t>
         </is>
       </c>
       <c r="F14" s="40" t="n"/>
       <c r="G14" s="41" t="inlineStr">
         <is>
-          <t>OS installation and license requirements</t>
+          <t>Secrets management and injection requirements</t>
         </is>
       </c>
     </row>
@@ -4326,23 +4386,23 @@
       </c>
       <c r="C15" s="39" t="inlineStr">
         <is>
-          <t>CUDA Version</t>
+          <t>Build Agent Compute</t>
         </is>
       </c>
       <c r="D15" s="39" t="inlineStr">
         <is>
-          <t>What CUDA toolkit version do you require?</t>
+          <t>What compute capacity is required per build agent?</t>
         </is>
       </c>
       <c r="E15" s="39" t="inlineStr">
         <is>
-          <t>Common: CUDA 11.8 (legacy), CUDA 12.x (current). Must match framework compatibility</t>
+          <t>Agent specs: 4 CPU/8GB RAM (light), 8 CPU/16GB RAM (standard), 16 CPU/32GB RAM (heavy), 32+ CPU/64GB RAM (intensive)</t>
         </is>
       </c>
       <c r="F15" s="40" t="n"/>
       <c r="G15" s="39" t="inlineStr">
         <is>
-          <t>CUDA installation and driver requirements</t>
+          <t>PowerEdge server sizing and configuration</t>
         </is>
       </c>
     </row>
@@ -4359,23 +4419,23 @@
       </c>
       <c r="C16" s="41" t="inlineStr">
         <is>
-          <t>Development Tools</t>
+          <t>Build Parallelism</t>
         </is>
       </c>
       <c r="D16" s="41" t="inlineStr">
         <is>
-          <t>What development environments and tools do you use?</t>
+          <t>Do you need parallel build execution or distributed builds?</t>
         </is>
       </c>
       <c r="E16" s="41" t="inlineStr">
         <is>
-          <t>Common: Jupyter Lab, VS Code, PyCharm, TensorBoard, MLflow, Weights &amp; Biases</t>
+          <t>Parallelism: Sequential builds only, Parallel test execution, Distributed compilation (Bazel, ccache), Matrix builds</t>
         </is>
       </c>
       <c r="F16" s="40" t="n"/>
       <c r="G16" s="41" t="inlineStr">
         <is>
-          <t>Software installation and configuration scope</t>
+          <t>Advanced build orchestration requirements</t>
         </is>
       </c>
     </row>
@@ -4392,23 +4452,23 @@
       </c>
       <c r="C17" s="39" t="inlineStr">
         <is>
-          <t>Containerization</t>
+          <t>Deployment Targets</t>
         </is>
       </c>
       <c r="D17" s="39" t="inlineStr">
         <is>
-          <t>Do you use Docker or container-based workflows?</t>
+          <t>What deployment targets must CI/CD pipelines support?</t>
         </is>
       </c>
       <c r="E17" s="39" t="inlineStr">
         <is>
-          <t>Options: Yes (Docker/Podman required), No (native Python environments)</t>
+          <t>Targets: Kubernetes, Docker Swarm, VMs, Cloud (AWS/Azure/GCP), On-prem servers, Mobile app stores</t>
         </is>
       </c>
       <c r="F17" s="40" t="n"/>
       <c r="G17" s="39" t="inlineStr">
         <is>
-          <t>Container runtime and NVIDIA Container Toolkit setup</t>
+          <t>Deployment integration and connectivity</t>
         </is>
       </c>
     </row>
@@ -4425,23 +4485,23 @@
       </c>
       <c r="C18" s="41" t="inlineStr">
         <is>
-          <t>Version Control</t>
+          <t>Pipeline Complexity</t>
         </is>
       </c>
       <c r="D18" s="41" t="inlineStr">
         <is>
-          <t>What version control and collaboration tools do you use?</t>
+          <t>How complex are your CI/CD pipelines?</t>
         </is>
       </c>
       <c r="E18" s="41" t="inlineStr">
         <is>
-          <t>Common: GitHub, GitLab, Bitbucket, DVC (Data Version Control)</t>
+          <t>Complexity: Simple build+test, Multi-stage (build/test/deploy), Approval gates, Blue-green deployments, Canary releases</t>
         </is>
       </c>
       <c r="F18" s="40" t="n"/>
       <c r="G18" s="41" t="inlineStr">
         <is>
-          <t>Git client and credentials configuration</t>
+          <t>Pipeline orchestration and workflow requirements</t>
         </is>
       </c>
     </row>
@@ -4458,23 +4518,23 @@
       </c>
       <c r="C19" s="39" t="inlineStr">
         <is>
-          <t>Remote Access</t>
+          <t>Testing Requirements</t>
         </is>
       </c>
       <c r="D19" s="39" t="inlineStr">
         <is>
-          <t>Do users need remote access to AI workstations?</t>
+          <t>What testing frameworks and tools do pipelines execute?</t>
         </is>
       </c>
       <c r="E19" s="39" t="inlineStr">
         <is>
-          <t>Options: Local only, SSH/terminal access, Remote desktop (VNC/RDP), JupyterHub web interface</t>
+          <t>Testing: Unit tests only, Integration tests, E2E tests, Performance tests, Security tests, Load tests</t>
         </is>
       </c>
       <c r="F19" s="40" t="n"/>
       <c r="G19" s="39" t="inlineStr">
         <is>
-          <t>Remote access architecture and VPN requirements</t>
+          <t>Test execution duration and resource requirements</t>
         </is>
       </c>
     </row>
@@ -4491,23 +4551,23 @@
       </c>
       <c r="C20" s="41" t="inlineStr">
         <is>
-          <t>Cluster Computing</t>
+          <t>Build Caching</t>
         </is>
       </c>
       <c r="D20" s="41" t="inlineStr">
         <is>
-          <t>Do you need distributed training across multiple machines?</t>
+          <t>Do you need build caching and dependency proxying?</t>
         </is>
       </c>
       <c r="E20" s="41" t="inlineStr">
         <is>
-          <t>Options: Single-node only, Multi-node with Horovod/DeepSpeed/PyTorch DDP</t>
+          <t>Caching: No caching, Docker layer caching, Maven/npm proxy cache, Distributed build cache (Gradle, Bazel)</t>
         </is>
       </c>
       <c r="F20" s="40" t="n"/>
       <c r="G20" s="41" t="inlineStr">
         <is>
-          <t>Network fabric and MPI configuration for clustering</t>
+          <t>Performance optimization and bandwidth reduction</t>
         </is>
       </c>
     </row>
@@ -4524,23 +4584,23 @@
       </c>
       <c r="C21" s="39" t="inlineStr">
         <is>
-          <t>Model Registry</t>
+          <t>Notifications</t>
         </is>
       </c>
       <c r="D21" s="39" t="inlineStr">
         <is>
-          <t>Do you need centralized model storage and versioning?</t>
+          <t>What notification and collaboration integrations are required?</t>
         </is>
       </c>
       <c r="E21" s="39" t="inlineStr">
         <is>
-          <t>Options: Local only, Shared NFS model registry, MLflow/DVC tracking server</t>
+          <t>Integrations: Slack, Microsoft Teams, Email, Jira, PagerDuty, Webhooks</t>
         </is>
       </c>
       <c r="F21" s="40" t="n"/>
       <c r="G21" s="39" t="inlineStr">
         <is>
-          <t>Model artifact management infrastructure</t>
+          <t>Notification and alerting requirements</t>
         </is>
       </c>
     </row>
@@ -4623,23 +4683,23 @@
       </c>
       <c r="C2" s="41" t="inlineStr">
         <is>
-          <t>Data Classification</t>
+          <t>Code Security</t>
         </is>
       </c>
       <c r="D2" s="41" t="inlineStr">
         <is>
-          <t>What is the highest data classification level in your AI datasets?</t>
+          <t>What is the sensitivity level of source code and builds?</t>
         </is>
       </c>
       <c r="E2" s="41" t="inlineStr">
         <is>
-          <t>Levels: Public, Internal, Confidential, Restricted, PII/PHI</t>
+          <t>Levels: Open source (public), Internal (proprietary), Confidential (trade secrets), Regulated (ITAR, FedRAMP)</t>
         </is>
       </c>
       <c r="F2" s="40" t="n"/>
       <c r="G2" s="41" t="inlineStr">
         <is>
-          <t>Determines encryption and access control requirements</t>
+          <t>Data classification and security requirements</t>
         </is>
       </c>
     </row>
@@ -4656,23 +4716,23 @@
       </c>
       <c r="C3" s="39" t="inlineStr">
         <is>
-          <t>Sensitive Data</t>
+          <t>Compliance Standards</t>
         </is>
       </c>
       <c r="D3" s="39" t="inlineStr">
         <is>
-          <t>What sensitive data types are present in your training datasets?</t>
+          <t>What compliance standards must CI/CD infrastructure meet?</t>
         </is>
       </c>
       <c r="E3" s="39" t="inlineStr">
         <is>
-          <t>Sensitive types: PII, PHI, Financial data, Proprietary algorithms, Customer data, Research IP</t>
+          <t>Common standards: SOC 2, ISO 27001, PCI DSS, HIPAA, FedRAMP, NIST 800-53, CMMC</t>
         </is>
       </c>
       <c r="F3" s="40" t="n"/>
       <c r="G3" s="39" t="inlineStr">
         <is>
-          <t>Data protection and encryption requirements</t>
+          <t>Compliance controls and audit requirements</t>
         </is>
       </c>
     </row>
@@ -4689,23 +4749,23 @@
       </c>
       <c r="C4" s="41" t="inlineStr">
         <is>
-          <t>Compliance Standards</t>
+          <t>Air-Gapped Builds</t>
         </is>
       </c>
       <c r="D4" s="41" t="inlineStr">
         <is>
-          <t>What compliance standards must the AI infrastructure meet?</t>
+          <t>Do you require air-gapped or disconnected build environments?</t>
         </is>
       </c>
       <c r="E4" s="41" t="inlineStr">
         <is>
-          <t>Common standards: SOC 2, ISO 27001, HIPAA, FedRAMP, GDPR, ITAR</t>
+          <t>Air-gap requirements: Internet-connected, Proxy/firewall only, Fully air-gapped, Classified network</t>
         </is>
       </c>
       <c r="F4" s="40" t="n"/>
       <c r="G4" s="41" t="inlineStr">
         <is>
-          <t>Compliance controls and audit requirements</t>
+          <t>Network isolation and security constraints</t>
         </is>
       </c>
     </row>
@@ -4722,23 +4782,23 @@
       </c>
       <c r="C5" s="39" t="inlineStr">
         <is>
-          <t>Data Residency</t>
+          <t>RBAC</t>
         </is>
       </c>
       <c r="D5" s="39" t="inlineStr">
         <is>
-          <t>Do you have data residency or sovereignty requirements?</t>
+          <t>What role-based access control is required for CI/CD platform?</t>
         </is>
       </c>
       <c r="E5" s="39" t="inlineStr">
         <is>
-          <t>On-premises data requirements affect cloud vs local storage decisions</t>
+          <t>RBAC: Basic (developer, admin), Project-based, Branch protection, Environment-based approvals, SOD (separation of duties)</t>
         </is>
       </c>
       <c r="F5" s="40" t="n"/>
       <c r="G5" s="39" t="inlineStr">
         <is>
-          <t>Geographic data location constraints</t>
+          <t>Access control and authorization requirements</t>
         </is>
       </c>
     </row>
@@ -4755,23 +4815,23 @@
       </c>
       <c r="C6" s="41" t="inlineStr">
         <is>
-          <t>Encryption</t>
+          <t>Authentication</t>
         </is>
       </c>
       <c r="D6" s="41" t="inlineStr">
         <is>
-          <t>What encryption requirements apply to datasets and models?</t>
+          <t>What authentication and SSO requirements apply?</t>
         </is>
       </c>
       <c r="E6" s="41" t="inlineStr">
         <is>
-          <t>Requirements: Encryption at rest (LUKS/BitLocker), Encryption in transit (TLS), Key management</t>
+          <t>Options: Local accounts, Active Directory/LDAP, SAML SSO, OIDC, MFA required, Certificate-based</t>
         </is>
       </c>
       <c r="F6" s="40" t="n"/>
       <c r="G6" s="41" t="inlineStr">
         <is>
-          <t>Security architecture and key management</t>
+          <t>Identity and access management requirements</t>
         </is>
       </c>
     </row>
@@ -4788,23 +4848,23 @@
       </c>
       <c r="C7" s="39" t="inlineStr">
         <is>
-          <t>Access Control</t>
+          <t>Audit Logging</t>
         </is>
       </c>
       <c r="D7" s="39" t="inlineStr">
         <is>
-          <t>What authentication and authorization requirements apply?</t>
+          <t>What audit and compliance logging is required?</t>
         </is>
       </c>
       <c r="E7" s="39" t="inlineStr">
         <is>
-          <t>Options: Local user accounts, Active Directory/LDAP, SSO (SAML/OIDC), MFA required, Certificate-based</t>
+          <t>Requirements: Build logs, User access audit, Pipeline execution history, Artifact download tracking, Retention period (1 year, 3 years, 7 years)</t>
         </is>
       </c>
       <c r="F7" s="40" t="n"/>
       <c r="G7" s="39" t="inlineStr">
         <is>
-          <t>Identity and access management requirements</t>
+          <t>Audit trail and compliance reporting needs</t>
         </is>
       </c>
     </row>
@@ -4821,23 +4881,23 @@
       </c>
       <c r="C8" s="41" t="inlineStr">
         <is>
-          <t>Network Security</t>
+          <t>Vulnerability Scanning</t>
         </is>
       </c>
       <c r="D8" s="41" t="inlineStr">
         <is>
-          <t>What network segmentation or isolation is required?</t>
+          <t>Do pipelines require security vulnerability scanning?</t>
         </is>
       </c>
       <c r="E8" s="41" t="inlineStr">
         <is>
-          <t>Options: Open network, VLAN isolation, Air-gapped environment, Firewall rules</t>
+          <t>Scanning: Container image scanning, Dependency scanning, SAST (static), DAST (dynamic), No scanning required</t>
         </is>
       </c>
       <c r="F8" s="40" t="n"/>
       <c r="G8" s="41" t="inlineStr">
         <is>
-          <t>Network architecture and security controls</t>
+          <t>Security scanning integration and tooling</t>
         </is>
       </c>
     </row>
@@ -4854,23 +4914,23 @@
       </c>
       <c r="C9" s="39" t="inlineStr">
         <is>
-          <t>Audit Logging</t>
+          <t>Artifact Signing</t>
         </is>
       </c>
       <c r="D9" s="39" t="inlineStr">
         <is>
-          <t>What audit and logging requirements do you have?</t>
+          <t>Do artifacts require code signing or attestation?</t>
         </is>
       </c>
       <c r="E9" s="39" t="inlineStr">
         <is>
-          <t>Requirements: User access logs, Training job logs, Data access audit trail, GPU utilization tracking</t>
+          <t>Signing: No signing, GPG signing, Sigstore/cosign, Certificate-based, Supply chain security (SLSA)</t>
         </is>
       </c>
       <c r="F9" s="40" t="n"/>
       <c r="G9" s="39" t="inlineStr">
         <is>
-          <t>Audit trail and compliance reporting needs</t>
+          <t>Software supply chain security requirements</t>
         </is>
       </c>
     </row>
@@ -4887,23 +4947,23 @@
       </c>
       <c r="C10" s="41" t="inlineStr">
         <is>
-          <t>Vulnerability Management</t>
+          <t>Network Isolation</t>
         </is>
       </c>
       <c r="D10" s="41" t="inlineStr">
         <is>
-          <t>What security patching and vulnerability management processes apply?</t>
+          <t>What network segmentation is required for build infrastructure?</t>
         </is>
       </c>
       <c r="E10" s="41" t="inlineStr">
         <is>
-          <t>Specify update frequency and approval procedures</t>
+          <t>Segmentation: Flat network, VLAN isolation, Firewall rules, DMZ for internet access, Zero-trust micro-segmentation</t>
         </is>
       </c>
       <c r="F10" s="40" t="n"/>
       <c r="G10" s="41" t="inlineStr">
         <is>
-          <t>Patch management and maintenance windows</t>
+          <t>Network security architecture</t>
         </is>
       </c>
     </row>
@@ -4920,23 +4980,23 @@
       </c>
       <c r="C11" s="39" t="inlineStr">
         <is>
-          <t>Code Review</t>
+          <t>Data Residency</t>
         </is>
       </c>
       <c r="D11" s="39" t="inlineStr">
         <is>
-          <t>Do ML training scripts require security review or approval?</t>
+          <t>Do you have data sovereignty or residency requirements for source code?</t>
         </is>
       </c>
       <c r="E11" s="39" t="inlineStr">
         <is>
-          <t>Security scanning for data exfiltration or credential exposure</t>
+          <t>Data residency: No restrictions, Country-specific (EU GDPR), Air-gapped domestic, Classified (no cloud)</t>
         </is>
       </c>
       <c r="F11" s="40" t="n"/>
       <c r="G11" s="39" t="inlineStr">
         <is>
-          <t>Code security and peer review processes</t>
+          <t>Geographic and sovereignty constraints</t>
         </is>
       </c>
     </row>
@@ -4951,7 +5011,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -5024,18 +5084,18 @@
       </c>
       <c r="D2" s="41" t="inlineStr">
         <is>
-          <t>Where will the AI workstations be physically located?</t>
+          <t>Where will the CI/CD infrastructure be deployed?</t>
         </is>
       </c>
       <c r="E2" s="41" t="inlineStr">
         <is>
-          <t>Options: Data center, Office space, Lab environment, User desks</t>
+          <t>Options: On-premises data center, Colocation facility, Edge location, Hybrid (on-prem + cloud burst)</t>
         </is>
       </c>
       <c r="F2" s="40" t="n"/>
       <c r="G2" s="41" t="inlineStr">
         <is>
-          <t>Physical space and power/cooling requirements</t>
+          <t>Physical deployment location</t>
         </is>
       </c>
     </row>
@@ -5057,12 +5117,12 @@
       </c>
       <c r="D3" s="39" t="inlineStr">
         <is>
-          <t>What power and cooling capacity is available?</t>
+          <t>What power and cooling capacity is available for build servers?</t>
         </is>
       </c>
       <c r="E3" s="39" t="inlineStr">
         <is>
-          <t>Precision 7960 + RTX A6000: ~500W per workstation. Ensure adequate circuit capacity and HVAC</t>
+          <t>PowerEdge R650: 800W per server. Plan 6-8kW for 8-server build farm. Ensure adequate circuits and HVAC</t>
         </is>
       </c>
       <c r="F3" s="40" t="n"/>
@@ -5085,23 +5145,23 @@
       </c>
       <c r="C4" s="41" t="inlineStr">
         <is>
-          <t>Network Connectivity</t>
+          <t>Rack Space</t>
         </is>
       </c>
       <c r="D4" s="41" t="inlineStr">
         <is>
-          <t>What network connectivity is available at workstation location?</t>
+          <t>How much rack space is available for CI/CD infrastructure?</t>
         </is>
       </c>
       <c r="E4" s="41" t="inlineStr">
         <is>
-          <t>Required: 10GbE for shared storage access. 1GbE minimum, 25GbE/40GbE optimal</t>
+          <t>Build agents: 8× PowerEdge R650 = 8U, Storage: Unity XT 380 = 3U, Network: Switches = 2U. Total ~15U required</t>
         </is>
       </c>
       <c r="F4" s="40" t="n"/>
       <c r="G4" s="41" t="inlineStr">
         <is>
-          <t>Network infrastructure and cabling requirements</t>
+          <t>Physical space and rack elevation planning</t>
         </is>
       </c>
     </row>
@@ -5118,23 +5178,23 @@
       </c>
       <c r="C5" s="39" t="inlineStr">
         <is>
-          <t>Rack vs Tower</t>
+          <t>DevOps Team Size</t>
         </is>
       </c>
       <c r="D5" s="39" t="inlineStr">
         <is>
-          <t>Do you prefer rack-mount or tower form factor?</t>
+          <t>How many DevOps engineers will manage CI/CD infrastructure?</t>
         </is>
       </c>
       <c r="E5" s="39" t="inlineStr">
         <is>
-          <t>Precision 7960 available as tower or rackmount. Tower for desks, rack for data center</t>
+          <t>Team size: 1-2 engineers (small), 3-5 engineers (medium), 6+ engineers (enterprise)</t>
         </is>
       </c>
       <c r="F5" s="40" t="n"/>
       <c r="G5" s="39" t="inlineStr">
         <is>
-          <t>Physical configuration and mounting requirements</t>
+          <t>Support team size and training requirements</t>
         </is>
       </c>
     </row>
@@ -5151,23 +5211,23 @@
       </c>
       <c r="C6" s="41" t="inlineStr">
         <is>
-          <t>Availability</t>
+          <t>CI/CD Expertise</t>
         </is>
       </c>
       <c r="D6" s="41" t="inlineStr">
         <is>
-          <t>What uptime requirements do you have for AI workstations?</t>
+          <t>What is your team's experience with self-hosted CI/CD platforms?</t>
         </is>
       </c>
       <c r="E6" s="41" t="inlineStr">
         <is>
-          <t>Common: Best-effort (no SLA), Business hours (8x5), High availability (99%+)</t>
+          <t>Experience: None (cloud-only), Basic (Jenkins/GitLab setup), Intermediate (pipeline optimization), Advanced (HA/DR)</t>
         </is>
       </c>
       <c r="F6" s="40" t="n"/>
       <c r="G6" s="41" t="inlineStr">
         <is>
-          <t>Support level and redundancy requirements</t>
+          <t>Training needs assessment</t>
         </is>
       </c>
     </row>
@@ -5184,23 +5244,23 @@
       </c>
       <c r="C7" s="39" t="inlineStr">
         <is>
-          <t>Backup</t>
+          <t>Linux Expertise</t>
         </is>
       </c>
       <c r="D7" s="39" t="inlineStr">
         <is>
-          <t>Do you need backup of training checkpoints and models?</t>
+          <t>What is your team's experience with Linux server administration?</t>
         </is>
       </c>
       <c r="E7" s="39" t="inlineStr">
         <is>
-          <t>Options: No backup (re-train acceptable), Local snapshots, Shared storage backup, Cloud sync</t>
+          <t>Experience: None (Windows only), Basic (SSH, package mgmt), Intermediate (systemd, networking), Advanced (kernel, performance)</t>
         </is>
       </c>
       <c r="F7" s="40" t="n"/>
       <c r="G7" s="39" t="inlineStr">
         <is>
-          <t>Backup strategy and data protection</t>
+          <t>Infrastructure management skill requirements</t>
         </is>
       </c>
     </row>
@@ -5217,23 +5277,23 @@
       </c>
       <c r="C8" s="41" t="inlineStr">
         <is>
-          <t>Support Coverage</t>
+          <t>Container Expertise</t>
         </is>
       </c>
       <c r="D8" s="41" t="inlineStr">
         <is>
-          <t>What support coverage do you require from Dell?</t>
+          <t>What is your team's experience with Docker and container platforms?</t>
         </is>
       </c>
       <c r="E8" s="41" t="inlineStr">
         <is>
-          <t>Options: Next business day, 4-hour response (ProSupport Plus), 24x7 mission critical</t>
+          <t>Experience: None, Basic (Dockerfile), Intermediate (Docker Compose), Advanced (Kubernetes, registry management)</t>
         </is>
       </c>
       <c r="F8" s="40" t="n"/>
       <c r="G8" s="41" t="inlineStr">
         <is>
-          <t>Dell support contract level selection</t>
+          <t>Container platform support requirements</t>
         </is>
       </c>
     </row>
@@ -5250,23 +5310,23 @@
       </c>
       <c r="C9" s="39" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Availability</t>
         </is>
       </c>
       <c r="D9" s="39" t="inlineStr">
         <is>
-          <t>What monitoring and alerting is required for GPU infrastructure?</t>
+          <t>What uptime requirements do you have for CI/CD infrastructure?</t>
         </is>
       </c>
       <c r="E9" s="39" t="inlineStr">
         <is>
-          <t>Requirements: GPU utilization metrics / Temperature monitoring / Job queue visibility / Resource allocation tracking</t>
+          <t>SLA: Best-effort 95% (downtime OK), Business 99% (maintenance windows), High 99.9% (HA required), Mission-critical 99.99%</t>
         </is>
       </c>
       <c r="F9" s="40" t="n"/>
       <c r="G9" s="39" t="inlineStr">
         <is>
-          <t>Monitoring infrastructure (Prometheus/Grafana or NVIDIA DCGM)</t>
+          <t>High availability and redundancy requirements</t>
         </is>
       </c>
     </row>
@@ -5283,23 +5343,23 @@
       </c>
       <c r="C10" s="41" t="inlineStr">
         <is>
-          <t>Provisioning</t>
+          <t>Backup</t>
         </is>
       </c>
       <c r="D10" s="41" t="inlineStr">
         <is>
-          <t>How will you provision and configure new workstations?</t>
+          <t>Do you need backup for build artifacts and CI/CD configuration?</t>
         </is>
       </c>
       <c r="E10" s="41" t="inlineStr">
         <is>
-          <t>Options: Manual setup, Ansible/Puppet automation, PXE boot with Kickstart, Golden image cloning</t>
+          <t>Backup: No backup (re-build), GitLab backup (config), Artifact backup (Veeam), Full DR with failover</t>
         </is>
       </c>
       <c r="F10" s="40" t="n"/>
       <c r="G10" s="41" t="inlineStr">
         <is>
-          <t>Provisioning automation and scalability</t>
+          <t>Backup strategy and data protection</t>
         </is>
       </c>
     </row>
@@ -5316,23 +5376,89 @@
       </c>
       <c r="C11" s="39" t="inlineStr">
         <is>
-          <t>Maintenance Windows</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="D11" s="39" t="inlineStr">
         <is>
-          <t>What maintenance windows are acceptable for updates and patches?</t>
+          <t>What monitoring and alerting is required for CI/CD infrastructure?</t>
         </is>
       </c>
       <c r="E11" s="39" t="inlineStr">
         <is>
-          <t>Specify days/times for system maintenance and reboots</t>
+          <t>Monitoring: Build queue depth, Agent utilization, Build success rate, Artifact download speed, System metrics (CPU, RAM, disk)</t>
         </is>
       </c>
       <c r="F11" s="40" t="n"/>
       <c r="G11" s="39" t="inlineStr">
         <is>
-          <t>Change management and downtime coordination</t>
+          <t>Monitoring and observability requirements</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="41" t="inlineStr">
+        <is>
+          <t>OPS-011</t>
+        </is>
+      </c>
+      <c r="B12" s="41" t="inlineStr">
+        <is>
+          <t>Operations &amp; Support</t>
+        </is>
+      </c>
+      <c r="C12" s="41" t="inlineStr">
+        <is>
+          <t>Support Coverage</t>
+        </is>
+      </c>
+      <c r="D12" s="41" t="inlineStr">
+        <is>
+          <t>What support coverage do you require from Dell?</t>
+        </is>
+      </c>
+      <c r="E12" s="41" t="inlineStr">
+        <is>
+          <t>Options: Next business day (NBD), 4-hour response (ProSupport Plus), 2-hour mission-critical, 24x7 TAM</t>
+        </is>
+      </c>
+      <c r="F12" s="40" t="n"/>
+      <c r="G12" s="41" t="inlineStr">
+        <is>
+          <t>Dell support contract level selection</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="39" t="inlineStr">
+        <is>
+          <t>OPS-012</t>
+        </is>
+      </c>
+      <c r="B13" s="39" t="inlineStr">
+        <is>
+          <t>Operations &amp; Support</t>
+        </is>
+      </c>
+      <c r="C13" s="39" t="inlineStr">
+        <is>
+          <t>Maintenance Windows</t>
+        </is>
+      </c>
+      <c r="D13" s="39" t="inlineStr">
+        <is>
+          <t>What maintenance windows are acceptable for patching and updates?</t>
+        </is>
+      </c>
+      <c r="E13" s="39" t="inlineStr">
+        <is>
+          <t>Change windows: Weekends only, Monthly window, Quarterly updates, Continuous deployment (zero-downtime)</t>
+        </is>
+      </c>
+      <c r="F13" s="40" t="n"/>
+      <c r="G13" s="39" t="inlineStr">
+        <is>
+          <t>Change management process and constraints</t>
         </is>
       </c>
     </row>
@@ -5420,12 +5546,12 @@
       </c>
       <c r="D2" s="41" t="inlineStr">
         <is>
-          <t>Who will be the technical lead for this AI workstation project?</t>
+          <t>Who will be the technical lead for this CI/CD infrastructure project?</t>
         </is>
       </c>
       <c r="E2" s="41" t="inlineStr">
         <is>
-          <t>Name, role, contact information</t>
+          <t>Name, role, contact information (VP Engineering, DevOps Manager, Platform Lead)</t>
         </is>
       </c>
       <c r="F2" s="40" t="n"/>
@@ -5453,7 +5579,7 @@
       </c>
       <c r="D3" s="39" t="inlineStr">
         <is>
-          <t>What internal resources are available for deployment and configuration?</t>
+          <t>What internal resources are available for deployment and pipeline migration?</t>
         </is>
       </c>
       <c r="E3" s="39" t="inlineStr">
@@ -5481,23 +5607,23 @@
       </c>
       <c r="C4" s="41" t="inlineStr">
         <is>
-          <t>Linux Experience</t>
+          <t>Vendor Support</t>
         </is>
       </c>
       <c r="D4" s="41" t="inlineStr">
         <is>
-          <t>What is your team's experience with Linux administration?</t>
+          <t>Do you need Dell ProDeploy services for server installation and configuration?</t>
         </is>
       </c>
       <c r="E4" s="41" t="inlineStr">
         <is>
-          <t>Experience levels: No experience, Basic, Intermediate, Advanced, Expert</t>
+          <t>ProDeploy: Rack installation, OS installation, GitLab setup, Pipeline migration assistance</t>
         </is>
       </c>
       <c r="F4" s="40" t="n"/>
       <c r="G4" s="41" t="inlineStr">
         <is>
-          <t>Training needs assessment for Ubuntu/RHEL administration</t>
+          <t>Professional services and on-site support needs</t>
         </is>
       </c>
     </row>
@@ -5514,23 +5640,23 @@
       </c>
       <c r="C5" s="39" t="inlineStr">
         <is>
-          <t>CUDA Experience</t>
+          <t>Pilot Projects</t>
         </is>
       </c>
       <c r="D5" s="39" t="inlineStr">
         <is>
-          <t>What is your team's experience with NVIDIA GPU drivers and CUDA?</t>
+          <t>What pilot projects or teams will validate the on-prem CI/CD platform?</t>
         </is>
       </c>
       <c r="E5" s="39" t="inlineStr">
         <is>
-          <t>Experience levels: No experience, Basic, Intermediate (troubleshoot drivers), Advanced (optimize kernels)</t>
+          <t>Pilot selection: 5-10 microservice projects, Single team, Non-critical applications, Greenfield projects</t>
         </is>
       </c>
       <c r="F5" s="40" t="n"/>
       <c r="G5" s="39" t="inlineStr">
         <is>
-          <t>CUDA configuration and troubleshooting support needs</t>
+          <t>Pilot testing and validation approach</t>
         </is>
       </c>
     </row>
@@ -5547,23 +5673,23 @@
       </c>
       <c r="C6" s="41" t="inlineStr">
         <is>
-          <t>Deployment Approach</t>
+          <t>Migration Approach</t>
         </is>
       </c>
       <c r="D6" s="41" t="inlineStr">
         <is>
-          <t>What is your preferred deployment approach?</t>
+          <t>What is your preferred CI/CD migration strategy?</t>
         </is>
       </c>
       <c r="E6" s="41" t="inlineStr">
         <is>
-          <t>Options: Pilot (1-2 workstations first), Phased (rollout by team), Full deployment (all at once)</t>
+          <t>Options: Pilot projects first, Phased by team (10 devs every 2 weeks), Parallel run (cloud + on-prem), All at once</t>
         </is>
       </c>
       <c r="F6" s="40" t="n"/>
       <c r="G6" s="41" t="inlineStr">
         <is>
-          <t>Implementation strategy and risk mitigation</t>
+          <t>Migration pacing and risk mitigation</t>
         </is>
       </c>
     </row>
@@ -5580,23 +5706,23 @@
       </c>
       <c r="C7" s="39" t="inlineStr">
         <is>
-          <t>Data Migration</t>
+          <t>Pipeline Migration</t>
         </is>
       </c>
       <c r="D7" s="39" t="inlineStr">
         <is>
-          <t>How will you migrate existing datasets to new infrastructure?</t>
+          <t>How many CI/CD pipelines need to be migrated?</t>
         </is>
       </c>
       <c r="E7" s="39" t="inlineStr">
         <is>
-          <t>Consider data transfer time, bandwidth, and validation procedures</t>
+          <t>Pipeline count: &lt;50 pipelines (small), 50-200 pipelines (medium), 200-500 pipelines (large), 500+ pipelines (enterprise)</t>
         </is>
       </c>
       <c r="F7" s="40" t="n"/>
       <c r="G7" s="39" t="inlineStr">
         <is>
-          <t>Data migration planning and timeline impact</t>
+          <t>Pipeline conversion effort estimation</t>
         </is>
       </c>
     </row>
@@ -5618,12 +5744,12 @@
       </c>
       <c r="D8" s="41" t="inlineStr">
         <is>
-          <t>What training will be needed for users and administrators?</t>
+          <t>What training will be needed for developers and DevOps team?</t>
         </is>
       </c>
       <c r="E8" s="41" t="inlineStr">
         <is>
-          <t>Types: Admin training (Linux/CUDA), User training (tools/workflows), Best practices (GPU optimization)</t>
+          <t>Types: GitLab CI/CD syntax, Artifactory usage, Pipeline debugging, Self-service onboarding, Admin training (GitLab/Artifactory)</t>
         </is>
       </c>
       <c r="F8" s="40" t="n"/>
@@ -5646,23 +5772,23 @@
       </c>
       <c r="C9" s="39" t="inlineStr">
         <is>
-          <t>Existing Workflows</t>
+          <t>Documentation</t>
         </is>
       </c>
       <c r="D9" s="39" t="inlineStr">
         <is>
-          <t>What existing ML workflows or scripts need to be validated?</t>
+          <t>What documentation is required for CI/CD infrastructure handover?</t>
         </is>
       </c>
       <c r="E9" s="39" t="inlineStr">
         <is>
-          <t>List critical training pipelines and dependencies to test</t>
+          <t>Deliverables: Architecture diagram, Pipeline templates, Runbooks, Troubleshooting guides, DR procedures</t>
         </is>
       </c>
       <c r="F9" s="40" t="n"/>
       <c r="G9" s="39" t="inlineStr">
         <is>
-          <t>Validation and compatibility testing requirements</t>
+          <t>Documentation requirements and formats</t>
         </is>
       </c>
     </row>
@@ -5679,23 +5805,23 @@
       </c>
       <c r="C10" s="41" t="inlineStr">
         <is>
-          <t>Installation Assistance</t>
+          <t>Testing Requirements</t>
         </is>
       </c>
       <c r="D10" s="41" t="inlineStr">
         <is>
-          <t>Do you need on-site installation or remote configuration is acceptable?</t>
+          <t>What testing is required before production CI/CD cutover?</t>
         </is>
       </c>
       <c r="E10" s="41" t="inlineStr">
         <is>
-          <t>Dell ProDeploy available for rack installation and basic setup</t>
+          <t>Testing: Build performance benchmarks, Parallel build capacity, Artifact download speed, Deployment integration, DR failover</t>
         </is>
       </c>
       <c r="F10" s="40" t="n"/>
       <c r="G10" s="41" t="inlineStr">
         <is>
-          <t>Dell ProDeploy services and on-site support needs</t>
+          <t>Acceptance testing criteria</t>
         </is>
       </c>
     </row>
@@ -5717,12 +5843,12 @@
       </c>
       <c r="D11" s="39" t="inlineStr">
         <is>
-          <t>What criteria must be met before workstations are production-ready?</t>
+          <t>What criteria must be met before CI/CD infrastructure is production-ready?</t>
         </is>
       </c>
       <c r="E11" s="39" t="inlineStr">
         <is>
-          <t>Examples: Benchmark performance validated, User training complete, Monitoring operational, First model trained successfully</t>
+          <t>Examples: Pilot validated (&lt;5 min queue time), Team trained, Artifact repository operational, Cloud CI/CD decommissioned</t>
         </is>
       </c>
       <c r="F11" s="40" t="n"/>
@@ -5816,12 +5942,12 @@
       </c>
       <c r="D2" s="41" t="inlineStr">
         <is>
-          <t>What are your concerns about migrating from cloud to on-premises?</t>
+          <t>What are your concerns about migrating from cloud to on-premises CI/CD?</t>
         </is>
       </c>
       <c r="E2" s="41" t="inlineStr">
         <is>
-          <t>Consider: upfront cost, hardware lifecycle, scalability, maintenance burden</t>
+          <t>Consider: Upfront CapEx, Infrastructure maintenance burden, Capacity planning, Scaling constraints, Vendor support quality</t>
         </is>
       </c>
       <c r="F2" s="40" t="n"/>
@@ -5844,23 +5970,23 @@
       </c>
       <c r="C3" s="39" t="inlineStr">
         <is>
-          <t>Hardware Obsolescence</t>
+          <t>Capacity Planning</t>
         </is>
       </c>
       <c r="D3" s="39" t="inlineStr">
         <is>
-          <t>How do you plan to handle GPU hardware refresh cycles?</t>
+          <t>What happens if you need more build capacity than initially deployed?</t>
         </is>
       </c>
       <c r="E3" s="39" t="inlineStr">
         <is>
-          <t>GPUs evolve rapidly (18-24 month cycles). Consider 3-year depreciation and upgrade path</t>
+          <t>Options: Add PowerEdge servers incrementally, Cloud burst for peak demand, Queue builds, Developer wait time acceptable</t>
         </is>
       </c>
       <c r="F3" s="40" t="n"/>
       <c r="G3" s="39" t="inlineStr">
         <is>
-          <t>Hardware lifecycle and technology refresh planning</t>
+          <t>Scalability constraints and expansion strategy</t>
         </is>
       </c>
     </row>
@@ -5877,23 +6003,23 @@
       </c>
       <c r="C4" s="41" t="inlineStr">
         <is>
-          <t>Capacity Planning</t>
+          <t>Single Point of Failure</t>
         </is>
       </c>
       <c r="D4" s="41" t="inlineStr">
         <is>
-          <t>What happens if you need more compute capacity than initially deployed?</t>
+          <t>What is your tolerance for build infrastructure failures?</t>
         </is>
       </c>
       <c r="E4" s="41" t="inlineStr">
         <is>
-          <t>Options: Add more workstations, Cloud burst for peak demand, Wait for next budget cycle</t>
+          <t>Failed build agent: Queue builds to other agents. Failed GitLab: All builds blocked. Assess risk appetite and HA needs</t>
         </is>
       </c>
       <c r="F4" s="40" t="n"/>
       <c r="G4" s="41" t="inlineStr">
         <is>
-          <t>Scalability constraints and hybrid cloud strategy</t>
+          <t>Failure mode analysis and mitigation strategies</t>
         </is>
       </c>
     </row>
@@ -5910,23 +6036,23 @@
       </c>
       <c r="C5" s="39" t="inlineStr">
         <is>
-          <t>Single Point of Failure</t>
+          <t>Pipeline Conversion</t>
         </is>
       </c>
       <c r="D5" s="39" t="inlineStr">
         <is>
-          <t>What is your tolerance for workstation hardware failures?</t>
+          <t>What is your biggest concern about converting pipelines to new CI/CD platform?</t>
         </is>
       </c>
       <c r="E5" s="39" t="inlineStr">
         <is>
-          <t>Failed workstation affects one user. Shared storage failure affects team. Assess risk appetite</t>
+          <t>Common: Syntax differences (GitHub Actions → GitLab), Integration breakage, Performance regressions, Developer productivity impact</t>
         </is>
       </c>
       <c r="F5" s="40" t="n"/>
       <c r="G5" s="39" t="inlineStr">
         <is>
-          <t>Failure mode analysis and mitigation strategies</t>
+          <t>Migration risk and mitigation planning</t>
         </is>
       </c>
     </row>
@@ -5943,23 +6069,23 @@
       </c>
       <c r="C6" s="41" t="inlineStr">
         <is>
-          <t>Vendor Lock-in</t>
+          <t>Skills Gap</t>
         </is>
       </c>
       <c r="D6" s="41" t="inlineStr">
         <is>
-          <t>What concerns do you have about Dell hardware dependency?</t>
+          <t>What is your biggest concern about managing on-prem CI/CD infrastructure?</t>
         </is>
       </c>
       <c r="E6" s="41" t="inlineStr">
         <is>
-          <t>Hardware-agnostic software (PyTorch/TensorFlow portable). CUDA ties to NVIDIA GPUs</t>
+          <t>Common: GitLab administration, Linux troubleshooting, Docker/container issues, Storage management, Network connectivity</t>
         </is>
       </c>
       <c r="F6" s="40" t="n"/>
       <c r="G6" s="41" t="inlineStr">
         <is>
-          <t>Technology risk and vendor diversification</t>
+          <t>Skill development and external support requirements</t>
         </is>
       </c>
     </row>
@@ -5976,23 +6102,23 @@
       </c>
       <c r="C7" s="39" t="inlineStr">
         <is>
-          <t>Power Outages</t>
+          <t>Vendor Lock-in</t>
         </is>
       </c>
       <c r="D7" s="39" t="inlineStr">
         <is>
-          <t>How will power outages affect training jobs in progress?</t>
+          <t>How do you plan to avoid vendor lock-in with on-prem CI/CD?</t>
         </is>
       </c>
       <c r="E7" s="39" t="inlineStr">
         <is>
-          <t>Consider UPS for graceful shutdown, checkpoint frequency for recovery</t>
+          <t>Strategies: Open standards (Docker, OCI), Pipeline portability, Multi-cloud runners, Avoid proprietary features</t>
         </is>
       </c>
       <c r="F7" s="40" t="n"/>
       <c r="G7" s="39" t="inlineStr">
         <is>
-          <t>Power protection and job recovery procedures</t>
+          <t>Technology risk and vendor diversification</t>
         </is>
       </c>
     </row>
@@ -6009,23 +6135,23 @@
       </c>
       <c r="C8" s="41" t="inlineStr">
         <is>
-          <t>Technical Skills Gap</t>
+          <t>Performance Risk</t>
         </is>
       </c>
       <c r="D8" s="41" t="inlineStr">
         <is>
-          <t>What is your biggest concern about managing on-prem AI infrastructure?</t>
+          <t>What if on-prem CI/CD performance is slower than cloud baseline?</t>
         </is>
       </c>
       <c r="E8" s="41" t="inlineStr">
         <is>
-          <t>Common: Linux administration, GPU driver troubleshooting, Storage management, Network configuration</t>
+          <t>Mitigation: Pilot validation before full migration, Benchmark testing, SLA-based acceptance, Hybrid cloud fallback option</t>
         </is>
       </c>
       <c r="F8" s="40" t="n"/>
       <c r="G8" s="41" t="inlineStr">
         <is>
-          <t>Skill development and external support requirements</t>
+          <t>Performance requirements and validation</t>
         </is>
       </c>
     </row>
@@ -6047,12 +6173,12 @@
       </c>
       <c r="D9" s="39" t="inlineStr">
         <is>
-          <t>What constraints must the solution work within?</t>
+          <t>What constraints must the CI/CD solution work within?</t>
         </is>
       </c>
       <c r="E9" s="39" t="inlineStr">
         <is>
-          <t>Consider: CapEx limits, OpEx annual budget, Approval processes, Procurement timelines</t>
+          <t>Consider: CapEx limits, OpEx annual budget, Software licensing costs, Approval processes, ROI payback period</t>
         </is>
       </c>
       <c r="F9" s="40" t="n"/>

--- a/solutions/dell/devops/poweredge-ci-infrastructure/presales/discovery-questionnaire.xlsx
+++ b/solutions/dell/devops/poweredge-ci-infrastructure/presales/discovery-questionnaire.xlsx
@@ -786,7 +786,7 @@
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>November 22, 2025</t>
+          <t>November 24, 2025</t>
         </is>
       </c>
     </row>
